--- a/src/api/docusign/contracts/assets/請負契約書.xlsx
+++ b/src/api/docusign/contracts/assets/請負契約書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\GitHub\yumekoko-docusign\src\lib\contracts\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\GitHub\yumekoko-docusign\src\api\docusign\contracts\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDABA8E6-F3E4-4139-BF70-A19CA5C11EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CDD792-A0E2-4A4A-8070-DDB231A84BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1102,7 +1102,7 @@
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;mm&quot;月&quot;dd&quot;日&quot;"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1206,14 +1206,6 @@
     <font>
       <sz val="11"/>
       <color indexed="10"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
@@ -1529,7 +1521,7 @@
     <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -1694,13 +1686,118 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1708,6 +1805,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1717,122 +1817,11 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="19" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="21" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2234,8 +2223,8 @@
   </sheetPr>
   <dimension ref="A1:AJ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35:AI35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC41" sqref="AC41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2248,108 +2237,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
     </row>
     <row r="2" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93"/>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
     </row>
     <row r="3" spans="1:36" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="M3" s="4"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="93"/>
-      <c r="AJ3" s="93"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
     </row>
     <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="97"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="97"/>
-      <c r="AE4" s="98"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="93"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
     </row>
     <row r="5" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="AF5" s="94"/>
-      <c r="AG5" s="94"/>
-      <c r="AH5" s="94"/>
-      <c r="AI5" s="94"/>
-      <c r="AJ5" s="94"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
@@ -2391,42 +2380,42 @@
     </row>
     <row r="7" spans="1:36" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="99"/>
-      <c r="T7" s="99"/>
-      <c r="U7" s="99"/>
-      <c r="V7" s="99"/>
-      <c r="W7" s="99"/>
-      <c r="X7" s="99"/>
-      <c r="Y7" s="99"/>
-      <c r="Z7" s="99"/>
-      <c r="AA7" s="99"/>
-      <c r="AB7" s="99"/>
-      <c r="AC7" s="99"/>
-      <c r="AD7" s="99"/>
-      <c r="AE7" s="99"/>
-      <c r="AF7" s="99"/>
-      <c r="AG7" s="99"/>
-      <c r="AH7" s="99"/>
-      <c r="AI7" s="99"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="63"/>
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="63"/>
+      <c r="AG7" s="63"/>
+      <c r="AH7" s="63"/>
+      <c r="AI7" s="63"/>
       <c r="AJ7" s="11"/>
     </row>
     <row r="8" spans="1:36" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2435,88 +2424,88 @@
     </row>
     <row r="9" spans="1:36" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="72" t="s">
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="72"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="72"/>
-      <c r="AG9" s="72"/>
-      <c r="AH9" s="72"/>
-      <c r="AI9" s="72"/>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="66"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="66"/>
       <c r="AJ9" s="18"/>
     </row>
     <row r="10" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="91" t="s">
+      <c r="F10" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="92" t="s">
+      <c r="K10" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="72"/>
-      <c r="AI10" s="72"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
       <c r="AJ10" s="18"/>
     </row>
     <row r="11" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2525,40 +2514,40 @@
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="91" t="s">
+      <c r="F11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="92" t="s">
+      <c r="K11" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="72"/>
-      <c r="AH11" s="72"/>
-      <c r="AI11" s="72"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="66"/>
       <c r="AJ11" s="18"/>
     </row>
     <row r="12" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2567,40 +2556,40 @@
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="91" t="s">
+      <c r="F12" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="92" t="s">
+      <c r="K12" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="92"/>
-      <c r="W12" s="92"/>
-      <c r="X12" s="92"/>
-      <c r="Y12" s="92"/>
-      <c r="Z12" s="92"/>
-      <c r="AA12" s="92"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="72"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
       <c r="AJ12" s="18"/>
     </row>
     <row r="13" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2609,124 +2598,124 @@
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="92" t="s">
+      <c r="K13" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="72" t="s">
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="AC13" s="72"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="72"/>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="72"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
       <c r="AJ13" s="18"/>
     </row>
     <row r="14" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="72" t="s">
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="AC14" s="72"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="72"/>
-      <c r="AH14" s="72"/>
-      <c r="AI14" s="72"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
       <c r="AJ14" s="18"/>
     </row>
     <row r="15" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="69"/>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="69"/>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="69"/>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="69"/>
-      <c r="AI15" s="69"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="72"/>
+      <c r="AF15" s="72"/>
+      <c r="AG15" s="72"/>
+      <c r="AH15" s="72"/>
+      <c r="AI15" s="72"/>
       <c r="AJ15" s="18"/>
     </row>
     <row r="16" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2735,32 +2724,32 @@
       <c r="C16" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="90"/>
-      <c r="AA16" s="90"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="74"/>
       <c r="AB16" s="16"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
@@ -2777,26 +2766,26 @@
       <c r="C17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="K17" s="87" t="s">
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="K17" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="88"/>
-      <c r="S17" s="88"/>
-      <c r="T17" s="88"/>
-      <c r="U17" s="88"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76"/>
+      <c r="U17" s="76"/>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
@@ -2817,15 +2806,15 @@
       <c r="A18" s="19"/>
       <c r="B18" s="23"/>
       <c r="M18" s="17"/>
-      <c r="N18" s="72" t="s">
+      <c r="N18" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
       <c r="U18" s="24" t="s">
         <v>25</v>
       </c>
@@ -2847,13 +2836,13 @@
       </c>
       <c r="L19" s="78"/>
       <c r="M19" s="78"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="85"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
       <c r="X19" s="16"/>
@@ -2875,15 +2864,15 @@
       <c r="B20" s="23"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
-      <c r="N20" s="72" t="s">
+      <c r="N20" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="86"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
       <c r="U20" s="24" t="s">
         <v>25</v>
       </c>
@@ -2905,14 +2894,14 @@
       <c r="C21" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
       <c r="J21" s="16"/>
       <c r="K21" s="17" t="s">
         <v>29</v>
@@ -2949,34 +2938,34 @@
       <c r="C22" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
       <c r="J22" s="16"/>
       <c r="K22" s="17" t="s">
         <v>32</v>
       </c>
       <c r="L22" s="16"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="82"/>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="82"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="80"/>
       <c r="AB22" s="16"/>
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
@@ -3007,15 +2996,15 @@
       <c r="P23" s="78"/>
       <c r="Q23" s="78"/>
       <c r="R23" s="78"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="83"/>
-      <c r="V23" s="83"/>
-      <c r="W23" s="83"/>
-      <c r="X23" s="83"/>
-      <c r="Y23" s="83"/>
-      <c r="Z23" s="84"/>
-      <c r="AA23" s="84"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
+      <c r="W23" s="81"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="81"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="82"/>
       <c r="AB23" s="16"/>
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
@@ -3048,15 +3037,15 @@
       <c r="P24" s="27"/>
       <c r="Q24" s="27"/>
       <c r="R24" s="27"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="79"/>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="80"/>
-      <c r="AA24" s="80"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="83"/>
+      <c r="Z24" s="84"/>
+      <c r="AA24" s="84"/>
       <c r="AB24" s="16"/>
       <c r="AC24" s="16"/>
       <c r="AD24" s="16"/>
@@ -3104,14 +3093,14 @@
       <c r="C26" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
@@ -3143,26 +3132,26 @@
     <row r="27" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
       <c r="B27" s="23"/>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="72" t="s">
+      <c r="K27" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
       <c r="N27" s="16"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="81"/>
-      <c r="U27" s="81"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="87"/>
+      <c r="S27" s="87"/>
+      <c r="T27" s="87"/>
+      <c r="U27" s="87"/>
       <c r="V27" s="16"/>
       <c r="W27" s="17" t="s">
         <v>40</v>
@@ -3171,17 +3160,17 @@
       <c r="Y27" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="Z27" s="73" t="s">
+      <c r="Z27" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="AA27" s="73"/>
-      <c r="AB27" s="73"/>
-      <c r="AC27" s="73"/>
-      <c r="AD27" s="73"/>
-      <c r="AE27" s="73"/>
-      <c r="AF27" s="73"/>
-      <c r="AG27" s="73"/>
-      <c r="AH27" s="73"/>
+      <c r="AA27" s="86"/>
+      <c r="AB27" s="86"/>
+      <c r="AC27" s="86"/>
+      <c r="AD27" s="86"/>
+      <c r="AE27" s="86"/>
+      <c r="AF27" s="86"/>
+      <c r="AG27" s="86"/>
+      <c r="AH27" s="86"/>
       <c r="AI27" s="16" t="s">
         <v>42</v>
       </c>
@@ -3195,21 +3184,21 @@
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="72" t="s">
+      <c r="K28" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
       <c r="N28" s="16"/>
-      <c r="O28" s="77" t="s">
+      <c r="O28" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="77"/>
-      <c r="S28" s="77"/>
-      <c r="T28" s="77"/>
-      <c r="U28" s="77"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="89"/>
       <c r="V28" s="16"/>
       <c r="W28" s="17" t="s">
         <v>40</v>
@@ -3218,17 +3207,17 @@
       <c r="Y28" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="Z28" s="73" t="s">
+      <c r="Z28" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="AA28" s="73"/>
-      <c r="AB28" s="73"/>
-      <c r="AC28" s="73"/>
-      <c r="AD28" s="73"/>
-      <c r="AE28" s="73"/>
-      <c r="AF28" s="73"/>
-      <c r="AG28" s="73"/>
-      <c r="AH28" s="73"/>
+      <c r="AA28" s="86"/>
+      <c r="AB28" s="86"/>
+      <c r="AC28" s="86"/>
+      <c r="AD28" s="86"/>
+      <c r="AE28" s="86"/>
+      <c r="AF28" s="86"/>
+      <c r="AG28" s="86"/>
+      <c r="AH28" s="86"/>
       <c r="AI28" s="16" t="s">
         <v>42</v>
       </c>
@@ -3238,19 +3227,19 @@
       <c r="A29" s="19"/>
       <c r="B29" s="23"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="72" t="s">
+      <c r="K29" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
       <c r="N29" s="16"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="76"/>
-      <c r="S29" s="76"/>
-      <c r="T29" s="76"/>
-      <c r="U29" s="76"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88"/>
       <c r="V29" s="16"/>
       <c r="W29" s="17" t="s">
         <v>40</v>
@@ -3259,17 +3248,17 @@
       <c r="Y29" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="Z29" s="73" t="s">
+      <c r="Z29" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="AA29" s="73"/>
-      <c r="AB29" s="73"/>
-      <c r="AC29" s="73"/>
-      <c r="AD29" s="73"/>
-      <c r="AE29" s="73"/>
-      <c r="AF29" s="73"/>
-      <c r="AG29" s="73"/>
-      <c r="AH29" s="73"/>
+      <c r="AA29" s="86"/>
+      <c r="AB29" s="86"/>
+      <c r="AC29" s="86"/>
+      <c r="AD29" s="86"/>
+      <c r="AE29" s="86"/>
+      <c r="AF29" s="86"/>
+      <c r="AG29" s="86"/>
+      <c r="AH29" s="86"/>
       <c r="AI29" s="16" t="s">
         <v>42</v>
       </c>
@@ -3279,19 +3268,19 @@
       <c r="A30" s="19"/>
       <c r="B30" s="23"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="72" t="s">
+      <c r="K30" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
       <c r="N30" s="16"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="76"/>
-      <c r="U30" s="76"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="88"/>
       <c r="V30" s="16"/>
       <c r="W30" s="17" t="s">
         <v>40</v>
@@ -3300,17 +3289,17 @@
       <c r="Y30" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="Z30" s="73" t="s">
+      <c r="Z30" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="AA30" s="73"/>
-      <c r="AB30" s="73"/>
-      <c r="AC30" s="73"/>
-      <c r="AD30" s="73"/>
-      <c r="AE30" s="73"/>
-      <c r="AF30" s="73"/>
-      <c r="AG30" s="73"/>
-      <c r="AH30" s="73"/>
+      <c r="AA30" s="86"/>
+      <c r="AB30" s="86"/>
+      <c r="AC30" s="86"/>
+      <c r="AD30" s="86"/>
+      <c r="AE30" s="86"/>
+      <c r="AF30" s="86"/>
+      <c r="AG30" s="86"/>
+      <c r="AH30" s="86"/>
       <c r="AI30" s="16" t="s">
         <v>42</v>
       </c>
@@ -3319,12 +3308,12 @@
     <row r="31" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
       <c r="B31" s="23"/>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
       <c r="J31" s="16"/>
       <c r="K31" s="17" t="s">
         <v>47</v>
@@ -3346,16 +3335,16 @@
       <c r="V31" s="16"/>
       <c r="W31" s="16"/>
       <c r="X31" s="16"/>
-      <c r="Y31" s="75"/>
-      <c r="Z31" s="75"/>
-      <c r="AA31" s="75"/>
-      <c r="AB31" s="75"/>
-      <c r="AC31" s="75"/>
-      <c r="AD31" s="75"/>
-      <c r="AE31" s="75"/>
-      <c r="AF31" s="75"/>
-      <c r="AG31" s="75"/>
-      <c r="AH31" s="75"/>
+      <c r="Y31" s="64"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="64"/>
+      <c r="AB31" s="64"/>
+      <c r="AC31" s="64"/>
+      <c r="AD31" s="64"/>
+      <c r="AE31" s="64"/>
+      <c r="AF31" s="64"/>
+      <c r="AG31" s="64"/>
+      <c r="AH31" s="64"/>
       <c r="AI31" s="16" t="s">
         <v>42</v>
       </c>
@@ -3367,75 +3356,75 @@
       <c r="C32" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="D32" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="72" t="s">
+      <c r="K32" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="72"/>
-      <c r="X32" s="72"/>
-      <c r="Y32" s="72"/>
-      <c r="Z32" s="72"/>
-      <c r="AA32" s="72"/>
-      <c r="AB32" s="72"/>
-      <c r="AC32" s="72"/>
-      <c r="AD32" s="72"/>
-      <c r="AE32" s="72"/>
-      <c r="AF32" s="72"/>
-      <c r="AG32" s="72"/>
-      <c r="AH32" s="72"/>
-      <c r="AI32" s="72"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="66"/>
+      <c r="AA32" s="66"/>
+      <c r="AB32" s="66"/>
+      <c r="AC32" s="66"/>
+      <c r="AD32" s="66"/>
+      <c r="AE32" s="66"/>
+      <c r="AF32" s="66"/>
+      <c r="AG32" s="66"/>
+      <c r="AH32" s="66"/>
+      <c r="AI32" s="66"/>
       <c r="AJ32" s="18"/>
     </row>
     <row r="33" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
       <c r="B33" s="23"/>
       <c r="J33" s="16"/>
-      <c r="K33" s="72" t="s">
+      <c r="K33" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="72"/>
-      <c r="W33" s="72"/>
-      <c r="X33" s="72"/>
-      <c r="Y33" s="72"/>
-      <c r="Z33" s="72"/>
-      <c r="AA33" s="72"/>
-      <c r="AB33" s="72"/>
-      <c r="AC33" s="72"/>
-      <c r="AD33" s="72"/>
-      <c r="AE33" s="72"/>
-      <c r="AF33" s="72"/>
-      <c r="AG33" s="72"/>
-      <c r="AH33" s="72"/>
-      <c r="AI33" s="72"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
+      <c r="AC33" s="66"/>
+      <c r="AD33" s="66"/>
+      <c r="AE33" s="66"/>
+      <c r="AF33" s="66"/>
+      <c r="AG33" s="66"/>
+      <c r="AH33" s="66"/>
+      <c r="AI33" s="66"/>
       <c r="AJ33" s="18"/>
     </row>
     <row r="34" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3444,42 +3433,42 @@
       <c r="C34" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
       <c r="J34" s="16"/>
-      <c r="K34" s="72" t="s">
+      <c r="K34" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="72"/>
-      <c r="W34" s="72"/>
-      <c r="X34" s="72"/>
-      <c r="Y34" s="72"/>
-      <c r="Z34" s="72"/>
-      <c r="AA34" s="72"/>
-      <c r="AB34" s="72"/>
-      <c r="AC34" s="72"/>
-      <c r="AD34" s="72"/>
-      <c r="AE34" s="72"/>
-      <c r="AF34" s="72"/>
-      <c r="AG34" s="72"/>
-      <c r="AH34" s="72"/>
-      <c r="AI34" s="72"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="66"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="66"/>
+      <c r="AA34" s="66"/>
+      <c r="AB34" s="66"/>
+      <c r="AC34" s="66"/>
+      <c r="AD34" s="66"/>
+      <c r="AE34" s="66"/>
+      <c r="AF34" s="66"/>
+      <c r="AG34" s="66"/>
+      <c r="AH34" s="66"/>
+      <c r="AI34" s="66"/>
       <c r="AJ34" s="18"/>
     </row>
     <row r="35" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3493,33 +3482,33 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
-      <c r="K35" s="72" t="s">
+      <c r="K35" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="72"/>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="72"/>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="72"/>
-      <c r="AC35" s="72"/>
-      <c r="AD35" s="72"/>
-      <c r="AE35" s="72"/>
-      <c r="AF35" s="72"/>
-      <c r="AG35" s="72"/>
-      <c r="AH35" s="72"/>
-      <c r="AI35" s="72"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="66"/>
+      <c r="X35" s="66"/>
+      <c r="Y35" s="66"/>
+      <c r="Z35" s="66"/>
+      <c r="AA35" s="66"/>
+      <c r="AB35" s="66"/>
+      <c r="AC35" s="66"/>
+      <c r="AD35" s="66"/>
+      <c r="AE35" s="66"/>
+      <c r="AF35" s="66"/>
+      <c r="AG35" s="66"/>
+      <c r="AH35" s="66"/>
+      <c r="AI35" s="66"/>
       <c r="AJ35" s="18"/>
     </row>
     <row r="36" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3563,101 +3552,101 @@
     <row r="37" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="19"/>
       <c r="B37" s="23"/>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="69"/>
-      <c r="R37" s="69"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="69"/>
-      <c r="U37" s="69"/>
-      <c r="V37" s="69"/>
-      <c r="W37" s="69"/>
-      <c r="X37" s="69"/>
-      <c r="Y37" s="69"/>
-      <c r="Z37" s="69"/>
-      <c r="AA37" s="69"/>
-      <c r="AB37" s="69"/>
-      <c r="AC37" s="69"/>
-      <c r="AD37" s="69"/>
-      <c r="AE37" s="69"/>
-      <c r="AF37" s="69"/>
-      <c r="AG37" s="69"/>
-      <c r="AH37" s="69"/>
-      <c r="AI37" s="69"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="72"/>
+      <c r="X37" s="72"/>
+      <c r="Y37" s="72"/>
+      <c r="Z37" s="72"/>
+      <c r="AA37" s="72"/>
+      <c r="AB37" s="72"/>
+      <c r="AC37" s="72"/>
+      <c r="AD37" s="72"/>
+      <c r="AE37" s="72"/>
+      <c r="AF37" s="72"/>
+      <c r="AG37" s="72"/>
+      <c r="AH37" s="72"/>
+      <c r="AI37" s="72"/>
       <c r="AJ37" s="18"/>
     </row>
     <row r="38" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="19"/>
       <c r="B38" s="23"/>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="69"/>
-      <c r="Q38" s="69"/>
-      <c r="R38" s="69"/>
-      <c r="S38" s="69"/>
-      <c r="T38" s="69"/>
-      <c r="U38" s="69"/>
-      <c r="V38" s="69"/>
-      <c r="W38" s="69"/>
-      <c r="X38" s="69"/>
-      <c r="Y38" s="69"/>
-      <c r="Z38" s="69"/>
-      <c r="AA38" s="69"/>
-      <c r="AB38" s="69"/>
-      <c r="AC38" s="69"/>
-      <c r="AD38" s="69"/>
-      <c r="AE38" s="69"/>
-      <c r="AF38" s="69"/>
-      <c r="AG38" s="69"/>
-      <c r="AH38" s="69"/>
-      <c r="AI38" s="69"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
+      <c r="V38" s="72"/>
+      <c r="W38" s="72"/>
+      <c r="X38" s="72"/>
+      <c r="Y38" s="72"/>
+      <c r="Z38" s="72"/>
+      <c r="AA38" s="72"/>
+      <c r="AB38" s="72"/>
+      <c r="AC38" s="72"/>
+      <c r="AD38" s="72"/>
+      <c r="AE38" s="72"/>
+      <c r="AF38" s="72"/>
+      <c r="AG38" s="72"/>
+      <c r="AH38" s="72"/>
+      <c r="AI38" s="72"/>
       <c r="AJ38" s="18"/>
     </row>
     <row r="39" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="19"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
-      <c r="D39" s="69" t="s">
+      <c r="D39" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="73" t="s">
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
-      <c r="M39" s="73"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="86"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
@@ -3686,34 +3675,34 @@
       <c r="A40" s="19"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
-      <c r="D40" s="69" t="s">
+      <c r="D40" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="63" t="s">
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="71"/>
-      <c r="S40" s="71"/>
-      <c r="T40" s="71"/>
-      <c r="U40" s="71"/>
-      <c r="V40" s="71"/>
-      <c r="W40" s="71"/>
-      <c r="X40" s="71"/>
-      <c r="Y40" s="71"/>
-      <c r="Z40" s="71"/>
-      <c r="AA40" s="71"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="92"/>
+      <c r="M40" s="92"/>
+      <c r="N40" s="92"/>
+      <c r="O40" s="92"/>
+      <c r="P40" s="92"/>
+      <c r="Q40" s="92"/>
+      <c r="R40" s="92"/>
+      <c r="S40" s="92"/>
+      <c r="T40" s="92"/>
+      <c r="U40" s="92"/>
+      <c r="V40" s="92"/>
+      <c r="W40" s="92"/>
+      <c r="X40" s="92"/>
+      <c r="Y40" s="92"/>
+      <c r="Z40" s="92"/>
+      <c r="AA40" s="92"/>
       <c r="AB40" s="16"/>
       <c r="AC40" s="16"/>
       <c r="AD40" s="16"/>
@@ -3735,23 +3724,23 @@
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="70"/>
-      <c r="N41" s="70"/>
-      <c r="O41" s="70"/>
-      <c r="P41" s="70"/>
-      <c r="Q41" s="70"/>
-      <c r="R41" s="70"/>
-      <c r="S41" s="70"/>
-      <c r="T41" s="70"/>
-      <c r="U41" s="70"/>
-      <c r="V41" s="70"/>
-      <c r="W41" s="70"/>
-      <c r="X41" s="70"/>
-      <c r="Y41" s="70"/>
-      <c r="Z41" s="70"/>
-      <c r="AA41" s="70"/>
+      <c r="K41" s="91"/>
+      <c r="L41" s="91"/>
+      <c r="M41" s="91"/>
+      <c r="N41" s="91"/>
+      <c r="O41" s="91"/>
+      <c r="P41" s="91"/>
+      <c r="Q41" s="91"/>
+      <c r="R41" s="91"/>
+      <c r="S41" s="91"/>
+      <c r="T41" s="91"/>
+      <c r="U41" s="91"/>
+      <c r="V41" s="91"/>
+      <c r="W41" s="91"/>
+      <c r="X41" s="91"/>
+      <c r="Y41" s="91"/>
+      <c r="Z41" s="91"/>
+      <c r="AA41" s="91"/>
       <c r="AB41" s="21" t="s">
         <v>62</v>
       </c>
@@ -3808,36 +3797,36 @@
       <c r="A43" s="19"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
-      <c r="D43" s="69" t="s">
+      <c r="D43" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="63" t="s">
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="66" t="s">
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="66"/>
-      <c r="M43" s="66"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="66"/>
-      <c r="P43" s="66"/>
-      <c r="Q43" s="66"/>
-      <c r="R43" s="66"/>
-      <c r="S43" s="66"/>
-      <c r="T43" s="66"/>
-      <c r="U43" s="66"/>
-      <c r="V43" s="66"/>
-      <c r="W43" s="66"/>
-      <c r="X43" s="66"/>
-      <c r="Y43" s="66"/>
-      <c r="Z43" s="66"/>
-      <c r="AA43" s="66"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="85"/>
+      <c r="O43" s="85"/>
+      <c r="P43" s="85"/>
+      <c r="Q43" s="85"/>
+      <c r="R43" s="85"/>
+      <c r="S43" s="85"/>
+      <c r="T43" s="85"/>
+      <c r="U43" s="85"/>
+      <c r="V43" s="85"/>
+      <c r="W43" s="85"/>
+      <c r="X43" s="85"/>
+      <c r="Y43" s="85"/>
+      <c r="Z43" s="85"/>
+      <c r="AA43" s="85"/>
       <c r="AB43" s="16"/>
       <c r="AC43" s="16"/>
       <c r="AD43" s="16"/>
@@ -3855,31 +3844,31 @@
       <c r="D44" s="23"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="63" t="s">
+      <c r="G44" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="66" t="s">
+      <c r="H44" s="90"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="L44" s="66"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="66"/>
-      <c r="R44" s="66"/>
-      <c r="S44" s="66"/>
-      <c r="T44" s="66"/>
-      <c r="U44" s="66"/>
-      <c r="V44" s="66"/>
-      <c r="W44" s="66"/>
-      <c r="X44" s="66"/>
-      <c r="Y44" s="66"/>
-      <c r="Z44" s="66"/>
-      <c r="AA44" s="66"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="85"/>
+      <c r="O44" s="85"/>
+      <c r="P44" s="85"/>
+      <c r="Q44" s="85"/>
+      <c r="R44" s="85"/>
+      <c r="S44" s="85"/>
+      <c r="T44" s="85"/>
+      <c r="U44" s="85"/>
+      <c r="V44" s="85"/>
+      <c r="W44" s="85"/>
+      <c r="X44" s="85"/>
+      <c r="Y44" s="85"/>
+      <c r="Z44" s="85"/>
+      <c r="AA44" s="85"/>
       <c r="AB44" s="16"/>
       <c r="AC44" s="16"/>
       <c r="AD44" s="16"/>
@@ -3897,35 +3886,35 @@
       <c r="D45" s="23"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="63" t="s">
+      <c r="G45" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="67" t="s">
+      <c r="H45" s="90"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="90"/>
+      <c r="K45" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="L45" s="67"/>
-      <c r="M45" s="67"/>
-      <c r="N45" s="67"/>
-      <c r="O45" s="67"/>
-      <c r="P45" s="67"/>
-      <c r="Q45" s="67"/>
-      <c r="R45" s="67"/>
-      <c r="S45" s="67"/>
-      <c r="T45" s="67"/>
-      <c r="U45" s="67"/>
-      <c r="V45" s="67"/>
-      <c r="W45" s="67"/>
-      <c r="X45" s="67"/>
-      <c r="Y45" s="67"/>
-      <c r="Z45" s="67"/>
-      <c r="AA45" s="67"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="65"/>
+      <c r="R45" s="65"/>
+      <c r="S45" s="65"/>
+      <c r="T45" s="65"/>
+      <c r="U45" s="65"/>
+      <c r="V45" s="65"/>
+      <c r="W45" s="65"/>
+      <c r="X45" s="65"/>
+      <c r="Y45" s="65"/>
+      <c r="Z45" s="65"/>
+      <c r="AA45" s="65"/>
       <c r="AB45" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AC45" s="56" t="s">
+      <c r="AC45" s="55" t="s">
         <v>80</v>
       </c>
       <c r="AD45" s="16"/>
@@ -3943,29 +3932,29 @@
       <c r="D46" s="23"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="63" t="s">
+      <c r="G46" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="68"/>
-      <c r="N46" s="68"/>
-      <c r="O46" s="68"/>
-      <c r="P46" s="68"/>
-      <c r="Q46" s="68"/>
-      <c r="R46" s="68"/>
-      <c r="S46" s="68"/>
-      <c r="T46" s="68"/>
-      <c r="U46" s="68"/>
-      <c r="V46" s="68"/>
-      <c r="W46" s="68"/>
-      <c r="X46" s="68"/>
-      <c r="Y46" s="68"/>
-      <c r="Z46" s="68"/>
-      <c r="AA46" s="68"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="95"/>
+      <c r="M46" s="95"/>
+      <c r="N46" s="95"/>
+      <c r="O46" s="95"/>
+      <c r="P46" s="95"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="95"/>
+      <c r="S46" s="95"/>
+      <c r="T46" s="95"/>
+      <c r="U46" s="95"/>
+      <c r="V46" s="95"/>
+      <c r="W46" s="95"/>
+      <c r="X46" s="95"/>
+      <c r="Y46" s="95"/>
+      <c r="Z46" s="95"/>
+      <c r="AA46" s="95"/>
       <c r="AB46" s="16"/>
       <c r="AC46" s="16"/>
       <c r="AD46" s="16"/>
@@ -4031,38 +4020,38 @@
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
       <c r="E49" s="40"/>
-      <c r="F49" s="58" t="s">
+      <c r="F49" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="58"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="58"/>
-      <c r="R49" s="58"/>
-      <c r="S49" s="58"/>
-      <c r="T49" s="58"/>
-      <c r="U49" s="58"/>
-      <c r="V49" s="58"/>
-      <c r="W49" s="58"/>
-      <c r="X49" s="58"/>
-      <c r="Y49" s="58"/>
-      <c r="Z49" s="58"/>
-      <c r="AA49" s="58"/>
-      <c r="AB49" s="58"/>
-      <c r="AC49" s="58"/>
-      <c r="AD49" s="58"/>
-      <c r="AE49" s="58"/>
-      <c r="AF49" s="58"/>
-      <c r="AG49" s="58"/>
-      <c r="AH49" s="58"/>
-      <c r="AI49" s="59"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="93"/>
+      <c r="L49" s="93"/>
+      <c r="M49" s="93"/>
+      <c r="N49" s="93"/>
+      <c r="O49" s="93"/>
+      <c r="P49" s="93"/>
+      <c r="Q49" s="93"/>
+      <c r="R49" s="93"/>
+      <c r="S49" s="93"/>
+      <c r="T49" s="93"/>
+      <c r="U49" s="93"/>
+      <c r="V49" s="93"/>
+      <c r="W49" s="93"/>
+      <c r="X49" s="93"/>
+      <c r="Y49" s="93"/>
+      <c r="Z49" s="93"/>
+      <c r="AA49" s="93"/>
+      <c r="AB49" s="93"/>
+      <c r="AC49" s="93"/>
+      <c r="AD49" s="93"/>
+      <c r="AE49" s="93"/>
+      <c r="AF49" s="93"/>
+      <c r="AG49" s="93"/>
+      <c r="AH49" s="93"/>
+      <c r="AI49" s="94"/>
       <c r="AJ49" s="18"/>
     </row>
     <row r="50" spans="1:36" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4073,80 +4062,80 @@
       <c r="E50" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="F50" s="58" t="s">
+      <c r="F50" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="58"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="58"/>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="58"/>
-      <c r="R50" s="58"/>
-      <c r="S50" s="58"/>
-      <c r="T50" s="58"/>
-      <c r="U50" s="58"/>
-      <c r="V50" s="58"/>
-      <c r="W50" s="58"/>
-      <c r="X50" s="58"/>
-      <c r="Y50" s="58"/>
-      <c r="Z50" s="58"/>
-      <c r="AA50" s="58"/>
-      <c r="AB50" s="58"/>
-      <c r="AC50" s="58"/>
-      <c r="AD50" s="58"/>
-      <c r="AE50" s="58"/>
-      <c r="AF50" s="58"/>
-      <c r="AG50" s="58"/>
-      <c r="AH50" s="58"/>
-      <c r="AI50" s="59"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
+      <c r="L50" s="93"/>
+      <c r="M50" s="93"/>
+      <c r="N50" s="93"/>
+      <c r="O50" s="93"/>
+      <c r="P50" s="93"/>
+      <c r="Q50" s="93"/>
+      <c r="R50" s="93"/>
+      <c r="S50" s="93"/>
+      <c r="T50" s="93"/>
+      <c r="U50" s="93"/>
+      <c r="V50" s="93"/>
+      <c r="W50" s="93"/>
+      <c r="X50" s="93"/>
+      <c r="Y50" s="93"/>
+      <c r="Z50" s="93"/>
+      <c r="AA50" s="93"/>
+      <c r="AB50" s="93"/>
+      <c r="AC50" s="93"/>
+      <c r="AD50" s="93"/>
+      <c r="AE50" s="93"/>
+      <c r="AF50" s="93"/>
+      <c r="AG50" s="93"/>
+      <c r="AH50" s="93"/>
+      <c r="AI50" s="94"/>
       <c r="AJ50" s="18"/>
     </row>
     <row r="51" spans="1:36" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
       <c r="E51" s="40"/>
-      <c r="F51" s="58" t="s">
+      <c r="F51" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="58"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="58"/>
-      <c r="O51" s="58"/>
-      <c r="P51" s="58"/>
-      <c r="Q51" s="58"/>
-      <c r="R51" s="58"/>
-      <c r="S51" s="58"/>
-      <c r="T51" s="58"/>
-      <c r="U51" s="58"/>
-      <c r="V51" s="58"/>
-      <c r="W51" s="58"/>
-      <c r="X51" s="58"/>
-      <c r="Y51" s="58"/>
-      <c r="Z51" s="58"/>
-      <c r="AA51" s="58"/>
-      <c r="AB51" s="58"/>
-      <c r="AC51" s="58"/>
-      <c r="AD51" s="58"/>
-      <c r="AE51" s="58"/>
-      <c r="AF51" s="58"/>
-      <c r="AG51" s="58"/>
-      <c r="AH51" s="58"/>
-      <c r="AI51" s="59"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="93"/>
+      <c r="I51" s="93"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="93"/>
+      <c r="L51" s="93"/>
+      <c r="M51" s="93"/>
+      <c r="N51" s="93"/>
+      <c r="O51" s="93"/>
+      <c r="P51" s="93"/>
+      <c r="Q51" s="93"/>
+      <c r="R51" s="93"/>
+      <c r="S51" s="93"/>
+      <c r="T51" s="93"/>
+      <c r="U51" s="93"/>
+      <c r="V51" s="93"/>
+      <c r="W51" s="93"/>
+      <c r="X51" s="93"/>
+      <c r="Y51" s="93"/>
+      <c r="Z51" s="93"/>
+      <c r="AA51" s="93"/>
+      <c r="AB51" s="93"/>
+      <c r="AC51" s="93"/>
+      <c r="AD51" s="93"/>
+      <c r="AE51" s="93"/>
+      <c r="AF51" s="93"/>
+      <c r="AG51" s="93"/>
+      <c r="AH51" s="93"/>
+      <c r="AI51" s="94"/>
       <c r="AJ51" s="18"/>
     </row>
     <row r="52" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4157,38 +4146,38 @@
       <c r="E52" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="F52" s="58" t="s">
+      <c r="F52" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="58"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="58"/>
-      <c r="O52" s="58"/>
-      <c r="P52" s="58"/>
-      <c r="Q52" s="58"/>
-      <c r="R52" s="58"/>
-      <c r="S52" s="58"/>
-      <c r="T52" s="58"/>
-      <c r="U52" s="58"/>
-      <c r="V52" s="58"/>
-      <c r="W52" s="58"/>
-      <c r="X52" s="58"/>
-      <c r="Y52" s="58"/>
-      <c r="Z52" s="58"/>
-      <c r="AA52" s="58"/>
-      <c r="AB52" s="58"/>
-      <c r="AC52" s="58"/>
-      <c r="AD52" s="58"/>
-      <c r="AE52" s="58"/>
-      <c r="AF52" s="58"/>
-      <c r="AG52" s="58"/>
-      <c r="AH52" s="58"/>
-      <c r="AI52" s="59"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="93"/>
+      <c r="I52" s="93"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="93"/>
+      <c r="L52" s="93"/>
+      <c r="M52" s="93"/>
+      <c r="N52" s="93"/>
+      <c r="O52" s="93"/>
+      <c r="P52" s="93"/>
+      <c r="Q52" s="93"/>
+      <c r="R52" s="93"/>
+      <c r="S52" s="93"/>
+      <c r="T52" s="93"/>
+      <c r="U52" s="93"/>
+      <c r="V52" s="93"/>
+      <c r="W52" s="93"/>
+      <c r="X52" s="93"/>
+      <c r="Y52" s="93"/>
+      <c r="Z52" s="93"/>
+      <c r="AA52" s="93"/>
+      <c r="AB52" s="93"/>
+      <c r="AC52" s="93"/>
+      <c r="AD52" s="93"/>
+      <c r="AE52" s="93"/>
+      <c r="AF52" s="93"/>
+      <c r="AG52" s="93"/>
+      <c r="AH52" s="93"/>
+      <c r="AI52" s="94"/>
       <c r="AJ52" s="45"/>
     </row>
     <row r="53" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4197,38 +4186,38 @@
       <c r="C53" s="43"/>
       <c r="D53" s="44"/>
       <c r="E53" s="40"/>
-      <c r="F53" s="58" t="s">
+      <c r="F53" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="58"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="58"/>
-      <c r="Q53" s="58"/>
-      <c r="R53" s="58"/>
-      <c r="S53" s="58"/>
-      <c r="T53" s="58"/>
-      <c r="U53" s="58"/>
-      <c r="V53" s="58"/>
-      <c r="W53" s="58"/>
-      <c r="X53" s="58"/>
-      <c r="Y53" s="58"/>
-      <c r="Z53" s="58"/>
-      <c r="AA53" s="58"/>
-      <c r="AB53" s="58"/>
-      <c r="AC53" s="58"/>
-      <c r="AD53" s="58"/>
-      <c r="AE53" s="58"/>
-      <c r="AF53" s="58"/>
-      <c r="AG53" s="58"/>
-      <c r="AH53" s="58"/>
-      <c r="AI53" s="59"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="93"/>
+      <c r="I53" s="93"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="93"/>
+      <c r="L53" s="93"/>
+      <c r="M53" s="93"/>
+      <c r="N53" s="93"/>
+      <c r="O53" s="93"/>
+      <c r="P53" s="93"/>
+      <c r="Q53" s="93"/>
+      <c r="R53" s="93"/>
+      <c r="S53" s="93"/>
+      <c r="T53" s="93"/>
+      <c r="U53" s="93"/>
+      <c r="V53" s="93"/>
+      <c r="W53" s="93"/>
+      <c r="X53" s="93"/>
+      <c r="Y53" s="93"/>
+      <c r="Z53" s="93"/>
+      <c r="AA53" s="93"/>
+      <c r="AB53" s="93"/>
+      <c r="AC53" s="93"/>
+      <c r="AD53" s="93"/>
+      <c r="AE53" s="93"/>
+      <c r="AF53" s="93"/>
+      <c r="AG53" s="93"/>
+      <c r="AH53" s="93"/>
+      <c r="AI53" s="94"/>
       <c r="AJ53" s="45"/>
     </row>
     <row r="54" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4237,38 +4226,38 @@
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
       <c r="E54" s="48"/>
-      <c r="F54" s="60" t="s">
+      <c r="F54" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="60"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="60"/>
-      <c r="P54" s="60"/>
-      <c r="Q54" s="60"/>
-      <c r="R54" s="60"/>
-      <c r="S54" s="60"/>
-      <c r="T54" s="60"/>
-      <c r="U54" s="60"/>
-      <c r="V54" s="60"/>
-      <c r="W54" s="60"/>
-      <c r="X54" s="60"/>
-      <c r="Y54" s="60"/>
-      <c r="Z54" s="60"/>
-      <c r="AA54" s="60"/>
-      <c r="AB54" s="60"/>
-      <c r="AC54" s="60"/>
-      <c r="AD54" s="60"/>
-      <c r="AE54" s="60"/>
-      <c r="AF54" s="60"/>
-      <c r="AG54" s="60"/>
-      <c r="AH54" s="60"/>
-      <c r="AI54" s="61"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="96"/>
+      <c r="K54" s="96"/>
+      <c r="L54" s="96"/>
+      <c r="M54" s="96"/>
+      <c r="N54" s="96"/>
+      <c r="O54" s="96"/>
+      <c r="P54" s="96"/>
+      <c r="Q54" s="96"/>
+      <c r="R54" s="96"/>
+      <c r="S54" s="96"/>
+      <c r="T54" s="96"/>
+      <c r="U54" s="96"/>
+      <c r="V54" s="96"/>
+      <c r="W54" s="96"/>
+      <c r="X54" s="96"/>
+      <c r="Y54" s="96"/>
+      <c r="Z54" s="96"/>
+      <c r="AA54" s="96"/>
+      <c r="AB54" s="96"/>
+      <c r="AC54" s="96"/>
+      <c r="AD54" s="96"/>
+      <c r="AE54" s="96"/>
+      <c r="AF54" s="96"/>
+      <c r="AG54" s="96"/>
+      <c r="AH54" s="96"/>
+      <c r="AI54" s="97"/>
       <c r="AJ54" s="45"/>
     </row>
     <row r="55" spans="1:36" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4310,42 +4299,42 @@
       <c r="AJ55" s="52"/>
     </row>
     <row r="56" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="62" t="s">
+      <c r="B56" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="62"/>
-      <c r="O56" s="62"/>
-      <c r="P56" s="62"/>
-      <c r="Q56" s="62"/>
-      <c r="R56" s="62"/>
-      <c r="S56" s="62"/>
-      <c r="T56" s="62"/>
-      <c r="U56" s="62"/>
-      <c r="V56" s="62"/>
-      <c r="W56" s="62"/>
-      <c r="X56" s="62"/>
-      <c r="Y56" s="62"/>
-      <c r="Z56" s="62"/>
-      <c r="AA56" s="62"/>
-      <c r="AB56" s="62"/>
-      <c r="AC56" s="62"/>
-      <c r="AD56" s="62"/>
-      <c r="AE56" s="62"/>
-      <c r="AF56" s="62"/>
-      <c r="AG56" s="62"/>
-      <c r="AH56" s="62"/>
-      <c r="AI56" s="62"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="98"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="98"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="98"/>
+      <c r="I56" s="98"/>
+      <c r="J56" s="98"/>
+      <c r="K56" s="98"/>
+      <c r="L56" s="98"/>
+      <c r="M56" s="98"/>
+      <c r="N56" s="98"/>
+      <c r="O56" s="98"/>
+      <c r="P56" s="98"/>
+      <c r="Q56" s="98"/>
+      <c r="R56" s="98"/>
+      <c r="S56" s="98"/>
+      <c r="T56" s="98"/>
+      <c r="U56" s="98"/>
+      <c r="V56" s="98"/>
+      <c r="W56" s="98"/>
+      <c r="X56" s="98"/>
+      <c r="Y56" s="98"/>
+      <c r="Z56" s="98"/>
+      <c r="AA56" s="98"/>
+      <c r="AB56" s="98"/>
+      <c r="AC56" s="98"/>
+      <c r="AD56" s="98"/>
+      <c r="AE56" s="98"/>
+      <c r="AF56" s="98"/>
+      <c r="AG56" s="98"/>
+      <c r="AH56" s="98"/>
+      <c r="AI56" s="98"/>
       <c r="AJ56" s="53"/>
     </row>
     <row r="57" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4356,57 +4345,37 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="AF1:AJ5"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:AE4"/>
-    <mergeCell ref="B7:AI7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:AA9"/>
-    <mergeCell ref="AB9:AI9"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="M2:AE2"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="K10:AA10"/>
-    <mergeCell ref="AB10:AI10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="K11:AA11"/>
-    <mergeCell ref="AB11:AI11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="K12:AA12"/>
-    <mergeCell ref="AB12:AI12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="K13:AA13"/>
-    <mergeCell ref="AB13:AI13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:AA14"/>
-    <mergeCell ref="AB14:AI14"/>
-    <mergeCell ref="B15:AI15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="K16:AA16"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="O17:U17"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="O19:U19"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="M22:AA22"/>
-    <mergeCell ref="D23:R23"/>
-    <mergeCell ref="S23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="S24:Y24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="Z27:AH27"/>
-    <mergeCell ref="O27:U27"/>
+    <mergeCell ref="F53:AI53"/>
+    <mergeCell ref="F54:AI54"/>
+    <mergeCell ref="B56:AI56"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="F49:AI49"/>
+    <mergeCell ref="F50:AI50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="F51:AI51"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:AA44"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:AA45"/>
+    <mergeCell ref="F52:AI52"/>
+    <mergeCell ref="K46:AA46"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="K43:AA43"/>
+    <mergeCell ref="K41:AA41"/>
+    <mergeCell ref="K40:AA40"/>
+    <mergeCell ref="K35:AI35"/>
+    <mergeCell ref="C37:AI37"/>
+    <mergeCell ref="C38:AI38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="K32:AI32"/>
+    <mergeCell ref="K33:AI33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="K34:AI34"/>
     <mergeCell ref="K30:M30"/>
     <mergeCell ref="Z30:AH30"/>
     <mergeCell ref="E31:H31"/>
@@ -4418,37 +4387,57 @@
     <mergeCell ref="O29:U29"/>
     <mergeCell ref="O28:U28"/>
     <mergeCell ref="O30:U30"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="K32:AI32"/>
-    <mergeCell ref="K33:AI33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="K34:AI34"/>
-    <mergeCell ref="K35:AI35"/>
-    <mergeCell ref="C37:AI37"/>
-    <mergeCell ref="C38:AI38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:AA43"/>
-    <mergeCell ref="K41:AA41"/>
-    <mergeCell ref="K40:AA40"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:AA44"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:AA45"/>
-    <mergeCell ref="F52:AI52"/>
-    <mergeCell ref="K46:AA46"/>
-    <mergeCell ref="F53:AI53"/>
-    <mergeCell ref="F54:AI54"/>
-    <mergeCell ref="B56:AI56"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="F49:AI49"/>
-    <mergeCell ref="F50:AI50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="F51:AI51"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="S24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="Z27:AH27"/>
+    <mergeCell ref="O27:U27"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="M22:AA22"/>
+    <mergeCell ref="D23:R23"/>
+    <mergeCell ref="S23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="O19:U19"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="O17:U17"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:AA14"/>
+    <mergeCell ref="AB14:AI14"/>
+    <mergeCell ref="B15:AI15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="K16:AA16"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="K12:AA12"/>
+    <mergeCell ref="AB12:AI12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="K13:AA13"/>
+    <mergeCell ref="AB13:AI13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="K10:AA10"/>
+    <mergeCell ref="AB10:AI10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="K11:AA11"/>
+    <mergeCell ref="AB11:AI11"/>
+    <mergeCell ref="AF1:AJ5"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:AE4"/>
+    <mergeCell ref="B7:AI7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:AA9"/>
+    <mergeCell ref="AB9:AI9"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="M2:AE2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/src/api/docusign/contracts/assets/請負契約書.xlsx
+++ b/src/api/docusign/contracts/assets/請負契約書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\GitHub\yumekoko-docusign\src\api\docusign\contracts\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CDD792-A0E2-4A4A-8070-DDB231A84BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2DD7E4-BE12-42A5-BF51-F6590444F4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
   <si>
     <t>工事番号：</t>
     <rPh sb="0" eb="2">
@@ -401,9 +401,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>(8 %)</t>
-  </si>
-  <si>
     <t>5.</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1062,22 +1059,6 @@
     </rPh>
     <rPh sb="43" eb="44">
       <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>平成25年1月改正</t>
-    <rPh sb="0" eb="2">
-      <t>ヘイセイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイセイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1691,6 +1672,111 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1712,116 +1798,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2223,8 +2204,8 @@
   </sheetPr>
   <dimension ref="A1:AJ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC41" sqref="AC41"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2237,108 +2218,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
     </row>
     <row r="2" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
       <c r="K2" s="56"/>
       <c r="L2" s="56"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="92"/>
     </row>
     <row r="3" spans="1:36" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="M3" s="4"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="92"/>
     </row>
     <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96"/>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="96"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
     </row>
     <row r="5" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="58"/>
-      <c r="AJ5" s="58"/>
+      <c r="AF5" s="93"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="93"/>
+      <c r="AJ5" s="93"/>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
@@ -2380,42 +2361,42 @@
     </row>
     <row r="7" spans="1:36" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="63"/>
-      <c r="AC7" s="63"/>
-      <c r="AD7" s="63"/>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="63"/>
-      <c r="AG7" s="63"/>
-      <c r="AH7" s="63"/>
-      <c r="AI7" s="63"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="98"/>
+      <c r="AF7" s="98"/>
+      <c r="AG7" s="98"/>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="98"/>
       <c r="AJ7" s="11"/>
     </row>
     <row r="8" spans="1:36" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2424,88 +2405,88 @@
     </row>
     <row r="9" spans="1:36" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="66" t="s">
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="66"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="71"/>
+      <c r="AH9" s="71"/>
+      <c r="AI9" s="71"/>
       <c r="AJ9" s="18"/>
     </row>
     <row r="10" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
       <c r="AJ10" s="18"/>
     </row>
     <row r="11" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2514,40 +2495,40 @@
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="71" t="s">
+      <c r="K11" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="71"/>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="71"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="91"/>
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="91"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="71"/>
+      <c r="AF11" s="71"/>
+      <c r="AG11" s="71"/>
+      <c r="AH11" s="71"/>
+      <c r="AI11" s="71"/>
       <c r="AJ11" s="18"/>
     </row>
     <row r="12" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2556,40 +2537,40 @@
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="71" t="s">
+      <c r="K12" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="91"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="91"/>
+      <c r="Z12" s="91"/>
+      <c r="AA12" s="91"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="71"/>
+      <c r="AH12" s="71"/>
+      <c r="AI12" s="71"/>
       <c r="AJ12" s="18"/>
     </row>
     <row r="13" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2598,124 +2579,124 @@
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="71" t="s">
+      <c r="K13" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
-      <c r="AB13" s="66" t="s">
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="91"/>
+      <c r="AB13" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="71"/>
+      <c r="AF13" s="71"/>
+      <c r="AG13" s="71"/>
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="71"/>
       <c r="AJ13" s="18"/>
     </row>
     <row r="14" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
-      <c r="AB14" s="66" t="s">
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="71"/>
+      <c r="AF14" s="71"/>
+      <c r="AG14" s="71"/>
+      <c r="AH14" s="71"/>
+      <c r="AI14" s="71"/>
       <c r="AJ14" s="18"/>
     </row>
     <row r="15" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="72"/>
-      <c r="AH15" s="72"/>
-      <c r="AI15" s="72"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="68"/>
+      <c r="AG15" s="68"/>
+      <c r="AH15" s="68"/>
+      <c r="AI15" s="68"/>
       <c r="AJ15" s="18"/>
     </row>
     <row r="16" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2733,23 +2714,23 @@
       <c r="H16" s="73"/>
       <c r="I16" s="73"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="74"/>
-      <c r="AA16" s="74"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="89"/>
       <c r="AB16" s="16"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
@@ -2774,18 +2755,18 @@
       <c r="G17" s="73"/>
       <c r="H17" s="73"/>
       <c r="I17" s="73"/>
-      <c r="K17" s="75" t="s">
+      <c r="K17" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87"/>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
@@ -2806,15 +2787,15 @@
       <c r="A18" s="19"/>
       <c r="B18" s="23"/>
       <c r="M18" s="17"/>
-      <c r="N18" s="66" t="s">
+      <c r="N18" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
       <c r="U18" s="24" t="s">
         <v>25</v>
       </c>
@@ -2831,18 +2812,18 @@
     <row r="19" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
       <c r="B19" s="23"/>
-      <c r="K19" s="78" t="s">
+      <c r="K19" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="84"/>
+      <c r="U19" s="84"/>
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
       <c r="X19" s="16"/>
@@ -2864,15 +2845,15 @@
       <c r="B20" s="23"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
-      <c r="N20" s="66" t="s">
+      <c r="N20" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="85"/>
       <c r="U20" s="24" t="s">
         <v>25</v>
       </c>
@@ -2951,21 +2932,21 @@
         <v>32</v>
       </c>
       <c r="L22" s="16"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="80"/>
-      <c r="U22" s="80"/>
-      <c r="V22" s="80"/>
-      <c r="W22" s="80"/>
-      <c r="X22" s="80"/>
-      <c r="Y22" s="80"/>
-      <c r="Z22" s="80"/>
-      <c r="AA22" s="80"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="81"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
       <c r="AB22" s="16"/>
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
@@ -2979,32 +2960,32 @@
     <row r="23" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
       <c r="B23" s="23"/>
-      <c r="D23" s="78" t="s">
+      <c r="D23" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
-      <c r="W23" s="81"/>
-      <c r="X23" s="81"/>
-      <c r="Y23" s="81"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="82"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="82"/>
+      <c r="W23" s="82"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="83"/>
       <c r="AB23" s="16"/>
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
@@ -3018,34 +2999,32 @@
     <row r="24" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
       <c r="B24" s="23"/>
-      <c r="D24" s="78" t="s">
+      <c r="D24" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="27" t="s">
-        <v>35</v>
-      </c>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="27"/>
       <c r="N24" s="27"/>
       <c r="O24" s="27"/>
       <c r="P24" s="27"/>
       <c r="Q24" s="27"/>
       <c r="R24" s="27"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="83"/>
-      <c r="U24" s="83"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="83"/>
-      <c r="Z24" s="84"/>
-      <c r="AA24" s="84"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
       <c r="AB24" s="16"/>
       <c r="AC24" s="16"/>
       <c r="AD24" s="16"/>
@@ -3091,10 +3070,10 @@
       <c r="A26" s="19"/>
       <c r="B26" s="23"/>
       <c r="C26" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="73" t="s">
         <v>36</v>
-      </c>
-      <c r="D26" s="73" t="s">
-        <v>37</v>
       </c>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
@@ -3132,47 +3111,47 @@
     <row r="27" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
       <c r="B27" s="23"/>
-      <c r="E27" s="85" t="s">
+      <c r="E27" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
       <c r="N27" s="16"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="87"/>
-      <c r="U27" s="87"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="80"/>
       <c r="V27" s="16"/>
       <c r="W27" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X27" s="16"/>
       <c r="Y27" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z27" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA27" s="72"/>
+      <c r="AB27" s="72"/>
+      <c r="AC27" s="72"/>
+      <c r="AD27" s="72"/>
+      <c r="AE27" s="72"/>
+      <c r="AF27" s="72"/>
+      <c r="AG27" s="72"/>
+      <c r="AH27" s="72"/>
+      <c r="AI27" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="Z27" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA27" s="86"/>
-      <c r="AB27" s="86"/>
-      <c r="AC27" s="86"/>
-      <c r="AD27" s="86"/>
-      <c r="AE27" s="86"/>
-      <c r="AF27" s="86"/>
-      <c r="AG27" s="86"/>
-      <c r="AH27" s="86"/>
-      <c r="AI27" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="AJ27" s="18"/>
     </row>
@@ -3184,42 +3163,42 @@
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
+      <c r="K28" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
       <c r="N28" s="16"/>
-      <c r="O28" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="89"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="89"/>
-      <c r="U28" s="89"/>
+      <c r="O28" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
       <c r="V28" s="16"/>
       <c r="W28" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X28" s="16"/>
       <c r="Y28" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z28" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA28" s="72"/>
+      <c r="AB28" s="72"/>
+      <c r="AC28" s="72"/>
+      <c r="AD28" s="72"/>
+      <c r="AE28" s="72"/>
+      <c r="AF28" s="72"/>
+      <c r="AG28" s="72"/>
+      <c r="AH28" s="72"/>
+      <c r="AI28" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="Z28" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA28" s="86"/>
-      <c r="AB28" s="86"/>
-      <c r="AC28" s="86"/>
-      <c r="AD28" s="86"/>
-      <c r="AE28" s="86"/>
-      <c r="AF28" s="86"/>
-      <c r="AG28" s="86"/>
-      <c r="AH28" s="86"/>
-      <c r="AI28" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="AJ28" s="18"/>
     </row>
@@ -3227,40 +3206,40 @@
       <c r="A29" s="19"/>
       <c r="B29" s="23"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
+      <c r="K29" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
       <c r="N29" s="16"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="88"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="75"/>
       <c r="V29" s="16"/>
       <c r="W29" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X29" s="16"/>
       <c r="Y29" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z29" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="72"/>
+      <c r="AG29" s="72"/>
+      <c r="AH29" s="72"/>
+      <c r="AI29" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="Z29" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA29" s="86"/>
-      <c r="AB29" s="86"/>
-      <c r="AC29" s="86"/>
-      <c r="AD29" s="86"/>
-      <c r="AE29" s="86"/>
-      <c r="AF29" s="86"/>
-      <c r="AG29" s="86"/>
-      <c r="AH29" s="86"/>
-      <c r="AI29" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="AJ29" s="18"/>
     </row>
@@ -3268,85 +3247,85 @@
       <c r="A30" s="19"/>
       <c r="B30" s="23"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
+      <c r="K30" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
       <c r="N30" s="16"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="88"/>
-      <c r="S30" s="88"/>
-      <c r="T30" s="88"/>
-      <c r="U30" s="88"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="75"/>
+      <c r="U30" s="75"/>
       <c r="V30" s="16"/>
       <c r="W30" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X30" s="16"/>
       <c r="Y30" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z30" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA30" s="72"/>
+      <c r="AB30" s="72"/>
+      <c r="AC30" s="72"/>
+      <c r="AD30" s="72"/>
+      <c r="AE30" s="72"/>
+      <c r="AF30" s="72"/>
+      <c r="AG30" s="72"/>
+      <c r="AH30" s="72"/>
+      <c r="AI30" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="Z30" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA30" s="86"/>
-      <c r="AB30" s="86"/>
-      <c r="AC30" s="86"/>
-      <c r="AD30" s="86"/>
-      <c r="AE30" s="86"/>
-      <c r="AF30" s="86"/>
-      <c r="AG30" s="86"/>
-      <c r="AH30" s="86"/>
-      <c r="AI30" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="AJ30" s="18"/>
     </row>
     <row r="31" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
       <c r="B31" s="23"/>
-      <c r="E31" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
+      <c r="E31" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
       <c r="J31" s="16"/>
       <c r="K31" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
       <c r="P31" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
       <c r="U31" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V31" s="16"/>
       <c r="W31" s="16"/>
       <c r="X31" s="16"/>
-      <c r="Y31" s="64"/>
-      <c r="Z31" s="64"/>
-      <c r="AA31" s="64"/>
-      <c r="AB31" s="64"/>
-      <c r="AC31" s="64"/>
-      <c r="AD31" s="64"/>
-      <c r="AE31" s="64"/>
-      <c r="AF31" s="64"/>
-      <c r="AG31" s="64"/>
-      <c r="AH31" s="64"/>
+      <c r="Y31" s="74"/>
+      <c r="Z31" s="74"/>
+      <c r="AA31" s="74"/>
+      <c r="AB31" s="74"/>
+      <c r="AC31" s="74"/>
+      <c r="AD31" s="74"/>
+      <c r="AE31" s="74"/>
+      <c r="AF31" s="74"/>
+      <c r="AG31" s="74"/>
+      <c r="AH31" s="74"/>
       <c r="AI31" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ31" s="18"/>
     </row>
@@ -3354,10 +3333,10 @@
       <c r="A32" s="19"/>
       <c r="B32" s="23"/>
       <c r="C32" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="73" t="s">
         <v>50</v>
-      </c>
-      <c r="D32" s="73" t="s">
-        <v>51</v>
       </c>
       <c r="E32" s="73"/>
       <c r="F32" s="73"/>
@@ -3365,76 +3344,76 @@
       <c r="H32" s="73"/>
       <c r="I32" s="73"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="66"/>
-      <c r="AB32" s="66"/>
-      <c r="AC32" s="66"/>
-      <c r="AD32" s="66"/>
-      <c r="AE32" s="66"/>
-      <c r="AF32" s="66"/>
-      <c r="AG32" s="66"/>
-      <c r="AH32" s="66"/>
-      <c r="AI32" s="66"/>
+      <c r="K32" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="71"/>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="71"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="71"/>
+      <c r="AD32" s="71"/>
+      <c r="AE32" s="71"/>
+      <c r="AF32" s="71"/>
+      <c r="AG32" s="71"/>
+      <c r="AH32" s="71"/>
+      <c r="AI32" s="71"/>
       <c r="AJ32" s="18"/>
     </row>
     <row r="33" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
       <c r="B33" s="23"/>
       <c r="J33" s="16"/>
-      <c r="K33" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
-      <c r="AC33" s="66"/>
-      <c r="AD33" s="66"/>
-      <c r="AE33" s="66"/>
-      <c r="AF33" s="66"/>
-      <c r="AG33" s="66"/>
-      <c r="AH33" s="66"/>
-      <c r="AI33" s="66"/>
+      <c r="K33" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="71"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="71"/>
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="71"/>
+      <c r="AD33" s="71"/>
+      <c r="AE33" s="71"/>
+      <c r="AF33" s="71"/>
+      <c r="AG33" s="71"/>
+      <c r="AH33" s="71"/>
+      <c r="AI33" s="71"/>
       <c r="AJ33" s="18"/>
     </row>
     <row r="34" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="19"/>
       <c r="B34" s="23"/>
       <c r="C34" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="73" t="s">
         <v>54</v>
-      </c>
-      <c r="D34" s="73" t="s">
-        <v>55</v>
       </c>
       <c r="E34" s="73"/>
       <c r="F34" s="73"/>
@@ -3442,33 +3421,33 @@
       <c r="H34" s="73"/>
       <c r="I34" s="73"/>
       <c r="J34" s="16"/>
-      <c r="K34" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="66"/>
-      <c r="R34" s="66"/>
-      <c r="S34" s="66"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="66"/>
-      <c r="Y34" s="66"/>
-      <c r="Z34" s="66"/>
-      <c r="AA34" s="66"/>
-      <c r="AB34" s="66"/>
-      <c r="AC34" s="66"/>
-      <c r="AD34" s="66"/>
-      <c r="AE34" s="66"/>
-      <c r="AF34" s="66"/>
-      <c r="AG34" s="66"/>
-      <c r="AH34" s="66"/>
-      <c r="AI34" s="66"/>
+      <c r="K34" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="71"/>
+      <c r="AC34" s="71"/>
+      <c r="AD34" s="71"/>
+      <c r="AE34" s="71"/>
+      <c r="AF34" s="71"/>
+      <c r="AG34" s="71"/>
+      <c r="AH34" s="71"/>
+      <c r="AI34" s="71"/>
       <c r="AJ34" s="18"/>
     </row>
     <row r="35" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3482,33 +3461,33 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
-      <c r="K35" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="66"/>
-      <c r="S35" s="66"/>
-      <c r="T35" s="66"/>
-      <c r="U35" s="66"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="66"/>
-      <c r="X35" s="66"/>
-      <c r="Y35" s="66"/>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="66"/>
-      <c r="AB35" s="66"/>
-      <c r="AC35" s="66"/>
-      <c r="AD35" s="66"/>
-      <c r="AE35" s="66"/>
-      <c r="AF35" s="66"/>
-      <c r="AG35" s="66"/>
-      <c r="AH35" s="66"/>
-      <c r="AI35" s="66"/>
+      <c r="K35" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
+      <c r="T35" s="71"/>
+      <c r="U35" s="71"/>
+      <c r="V35" s="71"/>
+      <c r="W35" s="71"/>
+      <c r="X35" s="71"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="71"/>
+      <c r="AA35" s="71"/>
+      <c r="AB35" s="71"/>
+      <c r="AC35" s="71"/>
+      <c r="AD35" s="71"/>
+      <c r="AE35" s="71"/>
+      <c r="AF35" s="71"/>
+      <c r="AG35" s="71"/>
+      <c r="AH35" s="71"/>
+      <c r="AI35" s="71"/>
       <c r="AJ35" s="18"/>
     </row>
     <row r="36" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3552,101 +3531,101 @@
     <row r="37" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="19"/>
       <c r="B37" s="23"/>
-      <c r="C37" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
-      <c r="W37" s="72"/>
-      <c r="X37" s="72"/>
-      <c r="Y37" s="72"/>
-      <c r="Z37" s="72"/>
-      <c r="AA37" s="72"/>
-      <c r="AB37" s="72"/>
-      <c r="AC37" s="72"/>
-      <c r="AD37" s="72"/>
-      <c r="AE37" s="72"/>
-      <c r="AF37" s="72"/>
-      <c r="AG37" s="72"/>
-      <c r="AH37" s="72"/>
-      <c r="AI37" s="72"/>
+      <c r="C37" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
+      <c r="S37" s="68"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="68"/>
+      <c r="AC37" s="68"/>
+      <c r="AD37" s="68"/>
+      <c r="AE37" s="68"/>
+      <c r="AF37" s="68"/>
+      <c r="AG37" s="68"/>
+      <c r="AH37" s="68"/>
+      <c r="AI37" s="68"/>
       <c r="AJ37" s="18"/>
     </row>
     <row r="38" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="19"/>
       <c r="B38" s="23"/>
-      <c r="C38" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="72"/>
-      <c r="X38" s="72"/>
-      <c r="Y38" s="72"/>
-      <c r="Z38" s="72"/>
-      <c r="AA38" s="72"/>
-      <c r="AB38" s="72"/>
-      <c r="AC38" s="72"/>
-      <c r="AD38" s="72"/>
-      <c r="AE38" s="72"/>
-      <c r="AF38" s="72"/>
-      <c r="AG38" s="72"/>
-      <c r="AH38" s="72"/>
-      <c r="AI38" s="72"/>
+      <c r="C38" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="68"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="68"/>
+      <c r="AB38" s="68"/>
+      <c r="AC38" s="68"/>
+      <c r="AD38" s="68"/>
+      <c r="AE38" s="68"/>
+      <c r="AF38" s="68"/>
+      <c r="AG38" s="68"/>
+      <c r="AH38" s="68"/>
+      <c r="AI38" s="68"/>
       <c r="AJ38" s="18"/>
     </row>
     <row r="39" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="19"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
-      <c r="D39" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="86" t="s">
+      <c r="D39" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="86"/>
-      <c r="L39" s="86"/>
-      <c r="M39" s="86"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
@@ -3675,34 +3654,34 @@
       <c r="A40" s="19"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
-      <c r="D40" s="72" t="s">
+      <c r="D40" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="92"/>
-      <c r="O40" s="92"/>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="92"/>
-      <c r="R40" s="92"/>
-      <c r="S40" s="92"/>
-      <c r="T40" s="92"/>
-      <c r="U40" s="92"/>
-      <c r="V40" s="92"/>
-      <c r="W40" s="92"/>
-      <c r="X40" s="92"/>
-      <c r="Y40" s="92"/>
-      <c r="Z40" s="92"/>
-      <c r="AA40" s="92"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="70"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="70"/>
+      <c r="R40" s="70"/>
+      <c r="S40" s="70"/>
+      <c r="T40" s="70"/>
+      <c r="U40" s="70"/>
+      <c r="V40" s="70"/>
+      <c r="W40" s="70"/>
+      <c r="X40" s="70"/>
+      <c r="Y40" s="70"/>
+      <c r="Z40" s="70"/>
+      <c r="AA40" s="70"/>
       <c r="AB40" s="16"/>
       <c r="AC40" s="16"/>
       <c r="AD40" s="16"/>
@@ -3724,28 +3703,28 @@
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
-      <c r="K41" s="91"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="91"/>
-      <c r="O41" s="91"/>
-      <c r="P41" s="91"/>
-      <c r="Q41" s="91"/>
-      <c r="R41" s="91"/>
-      <c r="S41" s="91"/>
-      <c r="T41" s="91"/>
-      <c r="U41" s="91"/>
-      <c r="V41" s="91"/>
-      <c r="W41" s="91"/>
-      <c r="X41" s="91"/>
-      <c r="Y41" s="91"/>
-      <c r="Z41" s="91"/>
-      <c r="AA41" s="91"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="69"/>
+      <c r="R41" s="69"/>
+      <c r="S41" s="69"/>
+      <c r="T41" s="69"/>
+      <c r="U41" s="69"/>
+      <c r="V41" s="69"/>
+      <c r="W41" s="69"/>
+      <c r="X41" s="69"/>
+      <c r="Y41" s="69"/>
+      <c r="Z41" s="69"/>
+      <c r="AA41" s="69"/>
       <c r="AB41" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC41" s="55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AD41" s="29"/>
       <c r="AE41" s="29"/>
@@ -3797,36 +3776,36 @@
       <c r="A43" s="19"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
-      <c r="D43" s="72" t="s">
+      <c r="D43" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="85" t="s">
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="85"/>
-      <c r="P43" s="85"/>
-      <c r="Q43" s="85"/>
-      <c r="R43" s="85"/>
-      <c r="S43" s="85"/>
-      <c r="T43" s="85"/>
-      <c r="U43" s="85"/>
-      <c r="V43" s="85"/>
-      <c r="W43" s="85"/>
-      <c r="X43" s="85"/>
-      <c r="Y43" s="85"/>
-      <c r="Z43" s="85"/>
-      <c r="AA43" s="85"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="65"/>
+      <c r="P43" s="65"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="65"/>
+      <c r="S43" s="65"/>
+      <c r="T43" s="65"/>
+      <c r="U43" s="65"/>
+      <c r="V43" s="65"/>
+      <c r="W43" s="65"/>
+      <c r="X43" s="65"/>
+      <c r="Y43" s="65"/>
+      <c r="Z43" s="65"/>
+      <c r="AA43" s="65"/>
       <c r="AB43" s="16"/>
       <c r="AC43" s="16"/>
       <c r="AD43" s="16"/>
@@ -3844,31 +3823,31 @@
       <c r="D44" s="23"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="90" t="s">
+      <c r="G44" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="85"/>
-      <c r="P44" s="85"/>
-      <c r="Q44" s="85"/>
-      <c r="R44" s="85"/>
-      <c r="S44" s="85"/>
-      <c r="T44" s="85"/>
-      <c r="U44" s="85"/>
-      <c r="V44" s="85"/>
-      <c r="W44" s="85"/>
-      <c r="X44" s="85"/>
-      <c r="Y44" s="85"/>
-      <c r="Z44" s="85"/>
-      <c r="AA44" s="85"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="65"/>
+      <c r="R44" s="65"/>
+      <c r="S44" s="65"/>
+      <c r="T44" s="65"/>
+      <c r="U44" s="65"/>
+      <c r="V44" s="65"/>
+      <c r="W44" s="65"/>
+      <c r="X44" s="65"/>
+      <c r="Y44" s="65"/>
+      <c r="Z44" s="65"/>
+      <c r="AA44" s="65"/>
       <c r="AB44" s="16"/>
       <c r="AC44" s="16"/>
       <c r="AD44" s="16"/>
@@ -3886,36 +3865,36 @@
       <c r="D45" s="23"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="90" t="s">
+      <c r="G45" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="65" t="s">
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="L45" s="65"/>
-      <c r="M45" s="65"/>
-      <c r="N45" s="65"/>
-      <c r="O45" s="65"/>
-      <c r="P45" s="65"/>
-      <c r="Q45" s="65"/>
-      <c r="R45" s="65"/>
-      <c r="S45" s="65"/>
-      <c r="T45" s="65"/>
-      <c r="U45" s="65"/>
-      <c r="V45" s="65"/>
-      <c r="W45" s="65"/>
-      <c r="X45" s="65"/>
-      <c r="Y45" s="65"/>
-      <c r="Z45" s="65"/>
-      <c r="AA45" s="65"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="66"/>
+      <c r="Q45" s="66"/>
+      <c r="R45" s="66"/>
+      <c r="S45" s="66"/>
+      <c r="T45" s="66"/>
+      <c r="U45" s="66"/>
+      <c r="V45" s="66"/>
+      <c r="W45" s="66"/>
+      <c r="X45" s="66"/>
+      <c r="Y45" s="66"/>
+      <c r="Z45" s="66"/>
+      <c r="AA45" s="66"/>
       <c r="AB45" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC45" s="55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AD45" s="16"/>
       <c r="AE45" s="16"/>
@@ -3932,29 +3911,29 @@
       <c r="D46" s="23"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="H46" s="90"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="95"/>
-      <c r="L46" s="95"/>
-      <c r="M46" s="95"/>
-      <c r="N46" s="95"/>
-      <c r="O46" s="95"/>
-      <c r="P46" s="95"/>
-      <c r="Q46" s="95"/>
-      <c r="R46" s="95"/>
-      <c r="S46" s="95"/>
-      <c r="T46" s="95"/>
-      <c r="U46" s="95"/>
-      <c r="V46" s="95"/>
-      <c r="W46" s="95"/>
-      <c r="X46" s="95"/>
-      <c r="Y46" s="95"/>
-      <c r="Z46" s="95"/>
-      <c r="AA46" s="95"/>
+      <c r="G46" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="67"/>
+      <c r="O46" s="67"/>
+      <c r="P46" s="67"/>
+      <c r="Q46" s="67"/>
+      <c r="R46" s="67"/>
+      <c r="S46" s="67"/>
+      <c r="T46" s="67"/>
+      <c r="U46" s="67"/>
+      <c r="V46" s="67"/>
+      <c r="W46" s="67"/>
+      <c r="X46" s="67"/>
+      <c r="Y46" s="67"/>
+      <c r="Z46" s="67"/>
+      <c r="AA46" s="67"/>
       <c r="AB46" s="16"/>
       <c r="AC46" s="16"/>
       <c r="AD46" s="16"/>
@@ -3978,10 +3957,10 @@
       <c r="C48" s="32"/>
       <c r="D48" s="33"/>
       <c r="E48" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="35" t="s">
         <v>67</v>
-      </c>
-      <c r="F48" s="35" t="s">
-        <v>68</v>
       </c>
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
@@ -4020,38 +3999,38 @@
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
       <c r="E49" s="40"/>
-      <c r="F49" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="G49" s="93"/>
-      <c r="H49" s="93"/>
-      <c r="I49" s="93"/>
-      <c r="J49" s="93"/>
-      <c r="K49" s="93"/>
-      <c r="L49" s="93"/>
-      <c r="M49" s="93"/>
-      <c r="N49" s="93"/>
-      <c r="O49" s="93"/>
-      <c r="P49" s="93"/>
-      <c r="Q49" s="93"/>
-      <c r="R49" s="93"/>
-      <c r="S49" s="93"/>
-      <c r="T49" s="93"/>
-      <c r="U49" s="93"/>
-      <c r="V49" s="93"/>
-      <c r="W49" s="93"/>
-      <c r="X49" s="93"/>
-      <c r="Y49" s="93"/>
-      <c r="Z49" s="93"/>
-      <c r="AA49" s="93"/>
-      <c r="AB49" s="93"/>
-      <c r="AC49" s="93"/>
-      <c r="AD49" s="93"/>
-      <c r="AE49" s="93"/>
-      <c r="AF49" s="93"/>
-      <c r="AG49" s="93"/>
-      <c r="AH49" s="93"/>
-      <c r="AI49" s="94"/>
+      <c r="F49" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="57"/>
+      <c r="R49" s="57"/>
+      <c r="S49" s="57"/>
+      <c r="T49" s="57"/>
+      <c r="U49" s="57"/>
+      <c r="V49" s="57"/>
+      <c r="W49" s="57"/>
+      <c r="X49" s="57"/>
+      <c r="Y49" s="57"/>
+      <c r="Z49" s="57"/>
+      <c r="AA49" s="57"/>
+      <c r="AB49" s="57"/>
+      <c r="AC49" s="57"/>
+      <c r="AD49" s="57"/>
+      <c r="AE49" s="57"/>
+      <c r="AF49" s="57"/>
+      <c r="AG49" s="57"/>
+      <c r="AH49" s="57"/>
+      <c r="AI49" s="58"/>
       <c r="AJ49" s="18"/>
     </row>
     <row r="50" spans="1:36" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4060,82 +4039,82 @@
       <c r="C50" s="38"/>
       <c r="D50" s="39"/>
       <c r="E50" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="F50" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="93"/>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
-      <c r="L50" s="93"/>
-      <c r="M50" s="93"/>
-      <c r="N50" s="93"/>
-      <c r="O50" s="93"/>
-      <c r="P50" s="93"/>
-      <c r="Q50" s="93"/>
-      <c r="R50" s="93"/>
-      <c r="S50" s="93"/>
-      <c r="T50" s="93"/>
-      <c r="U50" s="93"/>
-      <c r="V50" s="93"/>
-      <c r="W50" s="93"/>
-      <c r="X50" s="93"/>
-      <c r="Y50" s="93"/>
-      <c r="Z50" s="93"/>
-      <c r="AA50" s="93"/>
-      <c r="AB50" s="93"/>
-      <c r="AC50" s="93"/>
-      <c r="AD50" s="93"/>
-      <c r="AE50" s="93"/>
-      <c r="AF50" s="93"/>
-      <c r="AG50" s="93"/>
-      <c r="AH50" s="93"/>
-      <c r="AI50" s="94"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="57"/>
+      <c r="R50" s="57"/>
+      <c r="S50" s="57"/>
+      <c r="T50" s="57"/>
+      <c r="U50" s="57"/>
+      <c r="V50" s="57"/>
+      <c r="W50" s="57"/>
+      <c r="X50" s="57"/>
+      <c r="Y50" s="57"/>
+      <c r="Z50" s="57"/>
+      <c r="AA50" s="57"/>
+      <c r="AB50" s="57"/>
+      <c r="AC50" s="57"/>
+      <c r="AD50" s="57"/>
+      <c r="AE50" s="57"/>
+      <c r="AF50" s="57"/>
+      <c r="AG50" s="57"/>
+      <c r="AH50" s="57"/>
+      <c r="AI50" s="58"/>
       <c r="AJ50" s="18"/>
     </row>
     <row r="51" spans="1:36" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="99" t="s">
+      <c r="B51" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="G51" s="93"/>
-      <c r="H51" s="93"/>
-      <c r="I51" s="93"/>
-      <c r="J51" s="93"/>
-      <c r="K51" s="93"/>
-      <c r="L51" s="93"/>
-      <c r="M51" s="93"/>
-      <c r="N51" s="93"/>
-      <c r="O51" s="93"/>
-      <c r="P51" s="93"/>
-      <c r="Q51" s="93"/>
-      <c r="R51" s="93"/>
-      <c r="S51" s="93"/>
-      <c r="T51" s="93"/>
-      <c r="U51" s="93"/>
-      <c r="V51" s="93"/>
-      <c r="W51" s="93"/>
-      <c r="X51" s="93"/>
-      <c r="Y51" s="93"/>
-      <c r="Z51" s="93"/>
-      <c r="AA51" s="93"/>
-      <c r="AB51" s="93"/>
-      <c r="AC51" s="93"/>
-      <c r="AD51" s="93"/>
-      <c r="AE51" s="93"/>
-      <c r="AF51" s="93"/>
-      <c r="AG51" s="93"/>
-      <c r="AH51" s="93"/>
-      <c r="AI51" s="94"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="57"/>
+      <c r="Q51" s="57"/>
+      <c r="R51" s="57"/>
+      <c r="S51" s="57"/>
+      <c r="T51" s="57"/>
+      <c r="U51" s="57"/>
+      <c r="V51" s="57"/>
+      <c r="W51" s="57"/>
+      <c r="X51" s="57"/>
+      <c r="Y51" s="57"/>
+      <c r="Z51" s="57"/>
+      <c r="AA51" s="57"/>
+      <c r="AB51" s="57"/>
+      <c r="AC51" s="57"/>
+      <c r="AD51" s="57"/>
+      <c r="AE51" s="57"/>
+      <c r="AF51" s="57"/>
+      <c r="AG51" s="57"/>
+      <c r="AH51" s="57"/>
+      <c r="AI51" s="58"/>
       <c r="AJ51" s="18"/>
     </row>
     <row r="52" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4144,40 +4123,40 @@
       <c r="C52" s="43"/>
       <c r="D52" s="44"/>
       <c r="E52" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="F52" s="93" t="s">
-        <v>75</v>
-      </c>
-      <c r="G52" s="93"/>
-      <c r="H52" s="93"/>
-      <c r="I52" s="93"/>
-      <c r="J52" s="93"/>
-      <c r="K52" s="93"/>
-      <c r="L52" s="93"/>
-      <c r="M52" s="93"/>
-      <c r="N52" s="93"/>
-      <c r="O52" s="93"/>
-      <c r="P52" s="93"/>
-      <c r="Q52" s="93"/>
-      <c r="R52" s="93"/>
-      <c r="S52" s="93"/>
-      <c r="T52" s="93"/>
-      <c r="U52" s="93"/>
-      <c r="V52" s="93"/>
-      <c r="W52" s="93"/>
-      <c r="X52" s="93"/>
-      <c r="Y52" s="93"/>
-      <c r="Z52" s="93"/>
-      <c r="AA52" s="93"/>
-      <c r="AB52" s="93"/>
-      <c r="AC52" s="93"/>
-      <c r="AD52" s="93"/>
-      <c r="AE52" s="93"/>
-      <c r="AF52" s="93"/>
-      <c r="AG52" s="93"/>
-      <c r="AH52" s="93"/>
-      <c r="AI52" s="94"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="57"/>
+      <c r="S52" s="57"/>
+      <c r="T52" s="57"/>
+      <c r="U52" s="57"/>
+      <c r="V52" s="57"/>
+      <c r="W52" s="57"/>
+      <c r="X52" s="57"/>
+      <c r="Y52" s="57"/>
+      <c r="Z52" s="57"/>
+      <c r="AA52" s="57"/>
+      <c r="AB52" s="57"/>
+      <c r="AC52" s="57"/>
+      <c r="AD52" s="57"/>
+      <c r="AE52" s="57"/>
+      <c r="AF52" s="57"/>
+      <c r="AG52" s="57"/>
+      <c r="AH52" s="57"/>
+      <c r="AI52" s="58"/>
       <c r="AJ52" s="45"/>
     </row>
     <row r="53" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4186,38 +4165,38 @@
       <c r="C53" s="43"/>
       <c r="D53" s="44"/>
       <c r="E53" s="40"/>
-      <c r="F53" s="93" t="s">
-        <v>76</v>
-      </c>
-      <c r="G53" s="93"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="93"/>
-      <c r="K53" s="93"/>
-      <c r="L53" s="93"/>
-      <c r="M53" s="93"/>
-      <c r="N53" s="93"/>
-      <c r="O53" s="93"/>
-      <c r="P53" s="93"/>
-      <c r="Q53" s="93"/>
-      <c r="R53" s="93"/>
-      <c r="S53" s="93"/>
-      <c r="T53" s="93"/>
-      <c r="U53" s="93"/>
-      <c r="V53" s="93"/>
-      <c r="W53" s="93"/>
-      <c r="X53" s="93"/>
-      <c r="Y53" s="93"/>
-      <c r="Z53" s="93"/>
-      <c r="AA53" s="93"/>
-      <c r="AB53" s="93"/>
-      <c r="AC53" s="93"/>
-      <c r="AD53" s="93"/>
-      <c r="AE53" s="93"/>
-      <c r="AF53" s="93"/>
-      <c r="AG53" s="93"/>
-      <c r="AH53" s="93"/>
-      <c r="AI53" s="94"/>
+      <c r="F53" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="57"/>
+      <c r="S53" s="57"/>
+      <c r="T53" s="57"/>
+      <c r="U53" s="57"/>
+      <c r="V53" s="57"/>
+      <c r="W53" s="57"/>
+      <c r="X53" s="57"/>
+      <c r="Y53" s="57"/>
+      <c r="Z53" s="57"/>
+      <c r="AA53" s="57"/>
+      <c r="AB53" s="57"/>
+      <c r="AC53" s="57"/>
+      <c r="AD53" s="57"/>
+      <c r="AE53" s="57"/>
+      <c r="AF53" s="57"/>
+      <c r="AG53" s="57"/>
+      <c r="AH53" s="57"/>
+      <c r="AI53" s="58"/>
       <c r="AJ53" s="45"/>
     </row>
     <row r="54" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4226,38 +4205,38 @@
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
       <c r="E54" s="48"/>
-      <c r="F54" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="G54" s="96"/>
-      <c r="H54" s="96"/>
-      <c r="I54" s="96"/>
-      <c r="J54" s="96"/>
-      <c r="K54" s="96"/>
-      <c r="L54" s="96"/>
-      <c r="M54" s="96"/>
-      <c r="N54" s="96"/>
-      <c r="O54" s="96"/>
-      <c r="P54" s="96"/>
-      <c r="Q54" s="96"/>
-      <c r="R54" s="96"/>
-      <c r="S54" s="96"/>
-      <c r="T54" s="96"/>
-      <c r="U54" s="96"/>
-      <c r="V54" s="96"/>
-      <c r="W54" s="96"/>
-      <c r="X54" s="96"/>
-      <c r="Y54" s="96"/>
-      <c r="Z54" s="96"/>
-      <c r="AA54" s="96"/>
-      <c r="AB54" s="96"/>
-      <c r="AC54" s="96"/>
-      <c r="AD54" s="96"/>
-      <c r="AE54" s="96"/>
-      <c r="AF54" s="96"/>
-      <c r="AG54" s="96"/>
-      <c r="AH54" s="96"/>
-      <c r="AI54" s="97"/>
+      <c r="F54" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="59"/>
+      <c r="S54" s="59"/>
+      <c r="T54" s="59"/>
+      <c r="U54" s="59"/>
+      <c r="V54" s="59"/>
+      <c r="W54" s="59"/>
+      <c r="X54" s="59"/>
+      <c r="Y54" s="59"/>
+      <c r="Z54" s="59"/>
+      <c r="AA54" s="59"/>
+      <c r="AB54" s="59"/>
+      <c r="AC54" s="59"/>
+      <c r="AD54" s="59"/>
+      <c r="AE54" s="59"/>
+      <c r="AF54" s="59"/>
+      <c r="AG54" s="59"/>
+      <c r="AH54" s="59"/>
+      <c r="AI54" s="60"/>
       <c r="AJ54" s="45"/>
     </row>
     <row r="55" spans="1:36" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4299,42 +4278,40 @@
       <c r="AJ55" s="52"/>
     </row>
     <row r="56" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="98" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="98"/>
-      <c r="D56" s="98"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="98"/>
-      <c r="I56" s="98"/>
-      <c r="J56" s="98"/>
-      <c r="K56" s="98"/>
-      <c r="L56" s="98"/>
-      <c r="M56" s="98"/>
-      <c r="N56" s="98"/>
-      <c r="O56" s="98"/>
-      <c r="P56" s="98"/>
-      <c r="Q56" s="98"/>
-      <c r="R56" s="98"/>
-      <c r="S56" s="98"/>
-      <c r="T56" s="98"/>
-      <c r="U56" s="98"/>
-      <c r="V56" s="98"/>
-      <c r="W56" s="98"/>
-      <c r="X56" s="98"/>
-      <c r="Y56" s="98"/>
-      <c r="Z56" s="98"/>
-      <c r="AA56" s="98"/>
-      <c r="AB56" s="98"/>
-      <c r="AC56" s="98"/>
-      <c r="AD56" s="98"/>
-      <c r="AE56" s="98"/>
-      <c r="AF56" s="98"/>
-      <c r="AG56" s="98"/>
-      <c r="AH56" s="98"/>
-      <c r="AI56" s="98"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="61"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="61"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="61"/>
+      <c r="R56" s="61"/>
+      <c r="S56" s="61"/>
+      <c r="T56" s="61"/>
+      <c r="U56" s="61"/>
+      <c r="V56" s="61"/>
+      <c r="W56" s="61"/>
+      <c r="X56" s="61"/>
+      <c r="Y56" s="61"/>
+      <c r="Z56" s="61"/>
+      <c r="AA56" s="61"/>
+      <c r="AB56" s="61"/>
+      <c r="AC56" s="61"/>
+      <c r="AD56" s="61"/>
+      <c r="AE56" s="61"/>
+      <c r="AF56" s="61"/>
+      <c r="AG56" s="61"/>
+      <c r="AH56" s="61"/>
+      <c r="AI56" s="61"/>
       <c r="AJ56" s="53"/>
     </row>
     <row r="57" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4345,37 +4322,57 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="F53:AI53"/>
-    <mergeCell ref="F54:AI54"/>
-    <mergeCell ref="B56:AI56"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="F49:AI49"/>
-    <mergeCell ref="F50:AI50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="F51:AI51"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:AA44"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:AA45"/>
-    <mergeCell ref="F52:AI52"/>
-    <mergeCell ref="K46:AA46"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:AA43"/>
-    <mergeCell ref="K41:AA41"/>
-    <mergeCell ref="K40:AA40"/>
-    <mergeCell ref="K35:AI35"/>
-    <mergeCell ref="C37:AI37"/>
-    <mergeCell ref="C38:AI38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="K32:AI32"/>
-    <mergeCell ref="K33:AI33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="K34:AI34"/>
+    <mergeCell ref="AF1:AJ5"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:AE4"/>
+    <mergeCell ref="B7:AI7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:AA9"/>
+    <mergeCell ref="AB9:AI9"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="M2:AE2"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="K10:AA10"/>
+    <mergeCell ref="AB10:AI10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="K11:AA11"/>
+    <mergeCell ref="AB11:AI11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="K12:AA12"/>
+    <mergeCell ref="AB12:AI12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="K13:AA13"/>
+    <mergeCell ref="AB13:AI13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:AA14"/>
+    <mergeCell ref="AB14:AI14"/>
+    <mergeCell ref="B15:AI15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="K16:AA16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="O17:U17"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="O19:U19"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="M22:AA22"/>
+    <mergeCell ref="D23:R23"/>
+    <mergeCell ref="S23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="S24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="Z27:AH27"/>
+    <mergeCell ref="O27:U27"/>
     <mergeCell ref="K30:M30"/>
     <mergeCell ref="Z30:AH30"/>
     <mergeCell ref="E31:H31"/>
@@ -4387,57 +4384,37 @@
     <mergeCell ref="O29:U29"/>
     <mergeCell ref="O28:U28"/>
     <mergeCell ref="O30:U30"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="S24:Y24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="Z27:AH27"/>
-    <mergeCell ref="O27:U27"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="M22:AA22"/>
-    <mergeCell ref="D23:R23"/>
-    <mergeCell ref="S23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="O19:U19"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="O17:U17"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:AA14"/>
-    <mergeCell ref="AB14:AI14"/>
-    <mergeCell ref="B15:AI15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="K16:AA16"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="K12:AA12"/>
-    <mergeCell ref="AB12:AI12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="K13:AA13"/>
-    <mergeCell ref="AB13:AI13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="K10:AA10"/>
-    <mergeCell ref="AB10:AI10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="K11:AA11"/>
-    <mergeCell ref="AB11:AI11"/>
-    <mergeCell ref="AF1:AJ5"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:AE4"/>
-    <mergeCell ref="B7:AI7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:AA9"/>
-    <mergeCell ref="AB9:AI9"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="M2:AE2"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="K32:AI32"/>
+    <mergeCell ref="K33:AI33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="K34:AI34"/>
+    <mergeCell ref="K35:AI35"/>
+    <mergeCell ref="C37:AI37"/>
+    <mergeCell ref="C38:AI38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="K43:AA43"/>
+    <mergeCell ref="K41:AA41"/>
+    <mergeCell ref="K40:AA40"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:AA44"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:AA45"/>
+    <mergeCell ref="F52:AI52"/>
+    <mergeCell ref="K46:AA46"/>
+    <mergeCell ref="F53:AI53"/>
+    <mergeCell ref="F54:AI54"/>
+    <mergeCell ref="B56:AI56"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="F49:AI49"/>
+    <mergeCell ref="F50:AI50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="F51:AI51"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/src/api/docusign/contracts/assets/請負契約書.xlsx
+++ b/src/api/docusign/contracts/assets/請負契約書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\GitHub\yumekoko-docusign\src\api\docusign\contracts\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2DD7E4-BE12-42A5-BF51-F6590444F4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58168FF-86CF-49C4-A229-244A434A4618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
   <si>
     <t>工事番号：</t>
     <rPh sb="0" eb="2">
@@ -1072,6 +1072,22 @@
   </si>
   <si>
     <t>/sH/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/aT/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/dT/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/aK/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/kT/</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1502,7 +1518,7 @@
     <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -1672,12 +1688,129 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1687,122 +1820,14 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2204,8 +2229,8 @@
   </sheetPr>
   <dimension ref="A1:AJ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AE43" sqref="AE43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2218,108 +2243,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AF1" s="92"/>
-      <c r="AG1" s="92"/>
-      <c r="AH1" s="92"/>
-      <c r="AI1" s="92"/>
-      <c r="AJ1" s="92"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
     </row>
     <row r="2" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
       <c r="K2" s="56"/>
       <c r="L2" s="56"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="100"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="92"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
     </row>
     <row r="3" spans="1:36" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="M3" s="4"/>
-      <c r="AF3" s="92"/>
-      <c r="AG3" s="92"/>
-      <c r="AH3" s="92"/>
-      <c r="AI3" s="92"/>
-      <c r="AJ3" s="92"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
     </row>
     <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="96"/>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="96"/>
-      <c r="AD4" s="96"/>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
     </row>
     <row r="5" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="AF5" s="93"/>
-      <c r="AG5" s="93"/>
-      <c r="AH5" s="93"/>
-      <c r="AI5" s="93"/>
-      <c r="AJ5" s="93"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="60"/>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
@@ -2361,42 +2386,42 @@
     </row>
     <row r="7" spans="1:36" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="65"/>
+      <c r="AC7" s="65"/>
+      <c r="AD7" s="65"/>
+      <c r="AE7" s="65"/>
+      <c r="AF7" s="65"/>
+      <c r="AG7" s="65"/>
+      <c r="AH7" s="65"/>
+      <c r="AI7" s="65"/>
       <c r="AJ7" s="11"/>
     </row>
     <row r="8" spans="1:36" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2405,88 +2430,88 @@
     </row>
     <row r="9" spans="1:36" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="71" t="s">
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="71"/>
-      <c r="AF9" s="71"/>
-      <c r="AG9" s="71"/>
-      <c r="AH9" s="71"/>
-      <c r="AI9" s="71"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="68"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="68"/>
+      <c r="AI9" s="68"/>
       <c r="AJ9" s="18"/>
     </row>
     <row r="10" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="90" t="s">
+      <c r="F10" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="91" t="s">
+      <c r="K10" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="91"/>
-      <c r="W10" s="91"/>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="71"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="71"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="71"/>
-      <c r="AH10" s="71"/>
-      <c r="AI10" s="71"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="68"/>
+      <c r="AF10" s="68"/>
+      <c r="AG10" s="68"/>
+      <c r="AH10" s="68"/>
+      <c r="AI10" s="68"/>
       <c r="AJ10" s="18"/>
     </row>
     <row r="11" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2495,40 +2520,40 @@
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="90" t="s">
+      <c r="F11" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="91" t="s">
+      <c r="K11" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="91"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="91"/>
-      <c r="W11" s="91"/>
-      <c r="X11" s="91"/>
-      <c r="Y11" s="91"/>
-      <c r="Z11" s="91"/>
-      <c r="AA11" s="91"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="71"/>
-      <c r="AF11" s="71"/>
-      <c r="AG11" s="71"/>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="71"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="68"/>
+      <c r="AF11" s="68"/>
+      <c r="AG11" s="68"/>
+      <c r="AH11" s="68"/>
+      <c r="AI11" s="68"/>
       <c r="AJ11" s="18"/>
     </row>
     <row r="12" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2537,40 +2562,40 @@
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="90" t="s">
+      <c r="F12" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="91" t="s">
+      <c r="K12" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="91"/>
-      <c r="S12" s="91"/>
-      <c r="T12" s="91"/>
-      <c r="U12" s="91"/>
-      <c r="V12" s="91"/>
-      <c r="W12" s="91"/>
-      <c r="X12" s="91"/>
-      <c r="Y12" s="91"/>
-      <c r="Z12" s="91"/>
-      <c r="AA12" s="91"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="71"/>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="71"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="68"/>
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="68"/>
+      <c r="AI12" s="68"/>
       <c r="AJ12" s="18"/>
     </row>
     <row r="13" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2579,124 +2604,124 @@
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="90" t="s">
+      <c r="F13" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="91" t="s">
+      <c r="K13" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="91"/>
-      <c r="T13" s="91"/>
-      <c r="U13" s="91"/>
-      <c r="V13" s="91"/>
-      <c r="W13" s="91"/>
-      <c r="X13" s="91"/>
-      <c r="Y13" s="91"/>
-      <c r="Z13" s="91"/>
-      <c r="AA13" s="91"/>
-      <c r="AB13" s="71" t="s">
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="73"/>
+      <c r="AB13" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="71"/>
-      <c r="AF13" s="71"/>
-      <c r="AG13" s="71"/>
-      <c r="AH13" s="71"/>
-      <c r="AI13" s="71"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="68"/>
+      <c r="AI13" s="68"/>
       <c r="AJ13" s="18"/>
     </row>
     <row r="14" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="71" t="s">
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="AC14" s="71"/>
-      <c r="AD14" s="71"/>
-      <c r="AE14" s="71"/>
-      <c r="AF14" s="71"/>
-      <c r="AG14" s="71"/>
-      <c r="AH14" s="71"/>
-      <c r="AI14" s="71"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="68"/>
+      <c r="AI14" s="68"/>
       <c r="AJ14" s="18"/>
     </row>
     <row r="15" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="68"/>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="68"/>
-      <c r="AH15" s="68"/>
-      <c r="AI15" s="68"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="74"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="74"/>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="74"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="74"/>
+      <c r="AI15" s="74"/>
       <c r="AJ15" s="18"/>
     </row>
     <row r="16" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2705,32 +2730,32 @@
       <c r="C16" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="89"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="89"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="76"/>
       <c r="AB16" s="16"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
@@ -2747,26 +2772,26 @@
       <c r="C17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="K17" s="86" t="s">
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="K17" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="87"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="78"/>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
@@ -2787,15 +2812,15 @@
       <c r="A18" s="19"/>
       <c r="B18" s="23"/>
       <c r="M18" s="17"/>
-      <c r="N18" s="71" t="s">
+      <c r="N18" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
       <c r="U18" s="24" t="s">
         <v>25</v>
       </c>
@@ -2812,18 +2837,18 @@
     <row r="19" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
       <c r="B19" s="23"/>
-      <c r="K19" s="77" t="s">
+      <c r="K19" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="84"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
       <c r="X19" s="16"/>
@@ -2845,15 +2870,15 @@
       <c r="B20" s="23"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
-      <c r="N20" s="71" t="s">
+      <c r="N20" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="85"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
       <c r="U20" s="24" t="s">
         <v>25</v>
       </c>
@@ -2875,14 +2900,14 @@
       <c r="C21" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
       <c r="J21" s="16"/>
       <c r="K21" s="17" t="s">
         <v>29</v>
@@ -2919,34 +2944,34 @@
       <c r="C22" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
       <c r="J22" s="16"/>
       <c r="K22" s="17" t="s">
         <v>32</v>
       </c>
       <c r="L22" s="16"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="81"/>
-      <c r="X22" s="81"/>
-      <c r="Y22" s="81"/>
-      <c r="Z22" s="81"/>
-      <c r="AA22" s="81"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="82"/>
       <c r="AB22" s="16"/>
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
@@ -2960,32 +2985,32 @@
     <row r="23" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
       <c r="B23" s="23"/>
-      <c r="D23" s="77" t="s">
+      <c r="D23" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="82"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="82"/>
-      <c r="V23" s="82"/>
-      <c r="W23" s="82"/>
-      <c r="X23" s="82"/>
-      <c r="Y23" s="82"/>
-      <c r="Z23" s="83"/>
-      <c r="AA23" s="83"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="83"/>
+      <c r="Y23" s="83"/>
+      <c r="Z23" s="84"/>
+      <c r="AA23" s="84"/>
       <c r="AB23" s="16"/>
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
@@ -2999,32 +3024,32 @@
     <row r="24" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
       <c r="B24" s="23"/>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
       <c r="O24" s="27"/>
       <c r="P24" s="27"/>
       <c r="Q24" s="27"/>
       <c r="R24" s="27"/>
-      <c r="S24" s="78"/>
-      <c r="T24" s="78"/>
-      <c r="U24" s="78"/>
-      <c r="V24" s="78"/>
-      <c r="W24" s="78"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="78"/>
-      <c r="Z24" s="79"/>
-      <c r="AA24" s="79"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="85"/>
+      <c r="U24" s="85"/>
+      <c r="V24" s="85"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="85"/>
+      <c r="Y24" s="85"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="86"/>
       <c r="AB24" s="16"/>
       <c r="AC24" s="16"/>
       <c r="AD24" s="16"/>
@@ -3072,14 +3097,14 @@
       <c r="C26" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
@@ -3111,26 +3136,26 @@
     <row r="27" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
       <c r="B27" s="23"/>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="71" t="s">
+      <c r="K27" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
       <c r="N27" s="16"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="80"/>
-      <c r="U27" s="80"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="89"/>
       <c r="V27" s="16"/>
       <c r="W27" s="17" t="s">
         <v>39</v>
@@ -3139,17 +3164,17 @@
       <c r="Y27" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="Z27" s="72" t="s">
+      <c r="Z27" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="AA27" s="72"/>
-      <c r="AB27" s="72"/>
-      <c r="AC27" s="72"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="72"/>
-      <c r="AG27" s="72"/>
-      <c r="AH27" s="72"/>
+      <c r="AA27" s="88"/>
+      <c r="AB27" s="88"/>
+      <c r="AC27" s="88"/>
+      <c r="AD27" s="88"/>
+      <c r="AE27" s="88"/>
+      <c r="AF27" s="88"/>
+      <c r="AG27" s="88"/>
+      <c r="AH27" s="88"/>
       <c r="AI27" s="16" t="s">
         <v>41</v>
       </c>
@@ -3163,21 +3188,21 @@
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="71" t="s">
+      <c r="K28" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
       <c r="N28" s="16"/>
-      <c r="O28" s="76" t="s">
+      <c r="O28" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="76"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="91"/>
+      <c r="S28" s="91"/>
+      <c r="T28" s="91"/>
+      <c r="U28" s="91"/>
       <c r="V28" s="16"/>
       <c r="W28" s="17" t="s">
         <v>39</v>
@@ -3186,17 +3211,17 @@
       <c r="Y28" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="Z28" s="72" t="s">
+      <c r="Z28" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="AA28" s="72"/>
-      <c r="AB28" s="72"/>
-      <c r="AC28" s="72"/>
-      <c r="AD28" s="72"/>
-      <c r="AE28" s="72"/>
-      <c r="AF28" s="72"/>
-      <c r="AG28" s="72"/>
-      <c r="AH28" s="72"/>
+      <c r="AA28" s="88"/>
+      <c r="AB28" s="88"/>
+      <c r="AC28" s="88"/>
+      <c r="AD28" s="88"/>
+      <c r="AE28" s="88"/>
+      <c r="AF28" s="88"/>
+      <c r="AG28" s="88"/>
+      <c r="AH28" s="88"/>
       <c r="AI28" s="16" t="s">
         <v>41</v>
       </c>
@@ -3206,19 +3231,19 @@
       <c r="A29" s="19"/>
       <c r="B29" s="23"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="71" t="s">
+      <c r="K29" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
       <c r="N29" s="16"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="75"/>
-      <c r="T29" s="75"/>
-      <c r="U29" s="75"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90"/>
       <c r="V29" s="16"/>
       <c r="W29" s="17" t="s">
         <v>39</v>
@@ -3227,17 +3252,17 @@
       <c r="Y29" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="Z29" s="72" t="s">
+      <c r="Z29" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="AA29" s="72"/>
-      <c r="AB29" s="72"/>
-      <c r="AC29" s="72"/>
-      <c r="AD29" s="72"/>
-      <c r="AE29" s="72"/>
-      <c r="AF29" s="72"/>
-      <c r="AG29" s="72"/>
-      <c r="AH29" s="72"/>
+      <c r="AA29" s="88"/>
+      <c r="AB29" s="88"/>
+      <c r="AC29" s="88"/>
+      <c r="AD29" s="88"/>
+      <c r="AE29" s="88"/>
+      <c r="AF29" s="88"/>
+      <c r="AG29" s="88"/>
+      <c r="AH29" s="88"/>
       <c r="AI29" s="16" t="s">
         <v>41</v>
       </c>
@@ -3247,19 +3272,19 @@
       <c r="A30" s="19"/>
       <c r="B30" s="23"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="71" t="s">
+      <c r="K30" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
       <c r="N30" s="16"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="75"/>
-      <c r="T30" s="75"/>
-      <c r="U30" s="75"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
       <c r="V30" s="16"/>
       <c r="W30" s="17" t="s">
         <v>39</v>
@@ -3268,17 +3293,17 @@
       <c r="Y30" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="Z30" s="72" t="s">
+      <c r="Z30" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="AA30" s="72"/>
-      <c r="AB30" s="72"/>
-      <c r="AC30" s="72"/>
-      <c r="AD30" s="72"/>
-      <c r="AE30" s="72"/>
-      <c r="AF30" s="72"/>
-      <c r="AG30" s="72"/>
-      <c r="AH30" s="72"/>
+      <c r="AA30" s="88"/>
+      <c r="AB30" s="88"/>
+      <c r="AC30" s="88"/>
+      <c r="AD30" s="88"/>
+      <c r="AE30" s="88"/>
+      <c r="AF30" s="88"/>
+      <c r="AG30" s="88"/>
+      <c r="AH30" s="88"/>
       <c r="AI30" s="16" t="s">
         <v>41</v>
       </c>
@@ -3287,12 +3312,12 @@
     <row r="31" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
       <c r="B31" s="23"/>
-      <c r="E31" s="65" t="s">
+      <c r="E31" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
       <c r="J31" s="16"/>
       <c r="K31" s="17" t="s">
         <v>46</v>
@@ -3314,16 +3339,16 @@
       <c r="V31" s="16"/>
       <c r="W31" s="16"/>
       <c r="X31" s="16"/>
-      <c r="Y31" s="74"/>
-      <c r="Z31" s="74"/>
-      <c r="AA31" s="74"/>
-      <c r="AB31" s="74"/>
-      <c r="AC31" s="74"/>
-      <c r="AD31" s="74"/>
-      <c r="AE31" s="74"/>
-      <c r="AF31" s="74"/>
-      <c r="AG31" s="74"/>
-      <c r="AH31" s="74"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="66"/>
+      <c r="AD31" s="66"/>
+      <c r="AE31" s="66"/>
+      <c r="AF31" s="66"/>
+      <c r="AG31" s="66"/>
+      <c r="AH31" s="66"/>
       <c r="AI31" s="16" t="s">
         <v>41</v>
       </c>
@@ -3335,75 +3360,75 @@
       <c r="C32" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="71" t="s">
+      <c r="K32" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
-      <c r="V32" s="71"/>
-      <c r="W32" s="71"/>
-      <c r="X32" s="71"/>
-      <c r="Y32" s="71"/>
-      <c r="Z32" s="71"/>
-      <c r="AA32" s="71"/>
-      <c r="AB32" s="71"/>
-      <c r="AC32" s="71"/>
-      <c r="AD32" s="71"/>
-      <c r="AE32" s="71"/>
-      <c r="AF32" s="71"/>
-      <c r="AG32" s="71"/>
-      <c r="AH32" s="71"/>
-      <c r="AI32" s="71"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="68"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="68"/>
+      <c r="Y32" s="68"/>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="68"/>
+      <c r="AB32" s="68"/>
+      <c r="AC32" s="68"/>
+      <c r="AD32" s="68"/>
+      <c r="AE32" s="68"/>
+      <c r="AF32" s="68"/>
+      <c r="AG32" s="68"/>
+      <c r="AH32" s="68"/>
+      <c r="AI32" s="68"/>
       <c r="AJ32" s="18"/>
     </row>
     <row r="33" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
       <c r="B33" s="23"/>
       <c r="J33" s="16"/>
-      <c r="K33" s="71" t="s">
+      <c r="K33" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="71"/>
-      <c r="X33" s="71"/>
-      <c r="Y33" s="71"/>
-      <c r="Z33" s="71"/>
-      <c r="AA33" s="71"/>
-      <c r="AB33" s="71"/>
-      <c r="AC33" s="71"/>
-      <c r="AD33" s="71"/>
-      <c r="AE33" s="71"/>
-      <c r="AF33" s="71"/>
-      <c r="AG33" s="71"/>
-      <c r="AH33" s="71"/>
-      <c r="AI33" s="71"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="68"/>
+      <c r="Y33" s="68"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="68"/>
+      <c r="AC33" s="68"/>
+      <c r="AD33" s="68"/>
+      <c r="AE33" s="68"/>
+      <c r="AF33" s="68"/>
+      <c r="AG33" s="68"/>
+      <c r="AH33" s="68"/>
+      <c r="AI33" s="68"/>
       <c r="AJ33" s="18"/>
     </row>
     <row r="34" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3412,42 +3437,42 @@
       <c r="C34" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
       <c r="J34" s="16"/>
-      <c r="K34" s="71" t="s">
+      <c r="K34" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="71"/>
-      <c r="Y34" s="71"/>
-      <c r="Z34" s="71"/>
-      <c r="AA34" s="71"/>
-      <c r="AB34" s="71"/>
-      <c r="AC34" s="71"/>
-      <c r="AD34" s="71"/>
-      <c r="AE34" s="71"/>
-      <c r="AF34" s="71"/>
-      <c r="AG34" s="71"/>
-      <c r="AH34" s="71"/>
-      <c r="AI34" s="71"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="68"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="68"/>
+      <c r="AC34" s="68"/>
+      <c r="AD34" s="68"/>
+      <c r="AE34" s="68"/>
+      <c r="AF34" s="68"/>
+      <c r="AG34" s="68"/>
+      <c r="AH34" s="68"/>
+      <c r="AI34" s="68"/>
       <c r="AJ34" s="18"/>
     </row>
     <row r="35" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3461,33 +3486,33 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
-      <c r="K35" s="71" t="s">
+      <c r="K35" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="71"/>
-      <c r="V35" s="71"/>
-      <c r="W35" s="71"/>
-      <c r="X35" s="71"/>
-      <c r="Y35" s="71"/>
-      <c r="Z35" s="71"/>
-      <c r="AA35" s="71"/>
-      <c r="AB35" s="71"/>
-      <c r="AC35" s="71"/>
-      <c r="AD35" s="71"/>
-      <c r="AE35" s="71"/>
-      <c r="AF35" s="71"/>
-      <c r="AG35" s="71"/>
-      <c r="AH35" s="71"/>
-      <c r="AI35" s="71"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="68"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="68"/>
+      <c r="AC35" s="68"/>
+      <c r="AD35" s="68"/>
+      <c r="AE35" s="68"/>
+      <c r="AF35" s="68"/>
+      <c r="AG35" s="68"/>
+      <c r="AH35" s="68"/>
+      <c r="AI35" s="68"/>
       <c r="AJ35" s="18"/>
     </row>
     <row r="36" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3531,101 +3556,101 @@
     <row r="37" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="19"/>
       <c r="B37" s="23"/>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="68"/>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="68"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="68"/>
-      <c r="U37" s="68"/>
-      <c r="V37" s="68"/>
-      <c r="W37" s="68"/>
-      <c r="X37" s="68"/>
-      <c r="Y37" s="68"/>
-      <c r="Z37" s="68"/>
-      <c r="AA37" s="68"/>
-      <c r="AB37" s="68"/>
-      <c r="AC37" s="68"/>
-      <c r="AD37" s="68"/>
-      <c r="AE37" s="68"/>
-      <c r="AF37" s="68"/>
-      <c r="AG37" s="68"/>
-      <c r="AH37" s="68"/>
-      <c r="AI37" s="68"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="74"/>
+      <c r="Z37" s="74"/>
+      <c r="AA37" s="74"/>
+      <c r="AB37" s="74"/>
+      <c r="AC37" s="74"/>
+      <c r="AD37" s="74"/>
+      <c r="AE37" s="74"/>
+      <c r="AF37" s="74"/>
+      <c r="AG37" s="74"/>
+      <c r="AH37" s="74"/>
+      <c r="AI37" s="74"/>
       <c r="AJ37" s="18"/>
     </row>
     <row r="38" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="19"/>
       <c r="B38" s="23"/>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="68"/>
-      <c r="R38" s="68"/>
-      <c r="S38" s="68"/>
-      <c r="T38" s="68"/>
-      <c r="U38" s="68"/>
-      <c r="V38" s="68"/>
-      <c r="W38" s="68"/>
-      <c r="X38" s="68"/>
-      <c r="Y38" s="68"/>
-      <c r="Z38" s="68"/>
-      <c r="AA38" s="68"/>
-      <c r="AB38" s="68"/>
-      <c r="AC38" s="68"/>
-      <c r="AD38" s="68"/>
-      <c r="AE38" s="68"/>
-      <c r="AF38" s="68"/>
-      <c r="AG38" s="68"/>
-      <c r="AH38" s="68"/>
-      <c r="AI38" s="68"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="74"/>
+      <c r="R38" s="74"/>
+      <c r="S38" s="74"/>
+      <c r="T38" s="74"/>
+      <c r="U38" s="74"/>
+      <c r="V38" s="74"/>
+      <c r="W38" s="74"/>
+      <c r="X38" s="74"/>
+      <c r="Y38" s="74"/>
+      <c r="Z38" s="74"/>
+      <c r="AA38" s="74"/>
+      <c r="AB38" s="74"/>
+      <c r="AC38" s="74"/>
+      <c r="AD38" s="74"/>
+      <c r="AE38" s="74"/>
+      <c r="AF38" s="74"/>
+      <c r="AG38" s="74"/>
+      <c r="AH38" s="74"/>
+      <c r="AI38" s="74"/>
       <c r="AJ38" s="18"/>
     </row>
     <row r="39" spans="1:36" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="19"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="72" t="s">
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="88"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
@@ -3654,34 +3679,34 @@
       <c r="A40" s="19"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
-      <c r="D40" s="68" t="s">
+      <c r="D40" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="62" t="s">
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="70"/>
-      <c r="O40" s="70"/>
-      <c r="P40" s="70"/>
-      <c r="Q40" s="70"/>
-      <c r="R40" s="70"/>
-      <c r="S40" s="70"/>
-      <c r="T40" s="70"/>
-      <c r="U40" s="70"/>
-      <c r="V40" s="70"/>
-      <c r="W40" s="70"/>
-      <c r="X40" s="70"/>
-      <c r="Y40" s="70"/>
-      <c r="Z40" s="70"/>
-      <c r="AA40" s="70"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="94"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="94"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="94"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="94"/>
+      <c r="T40" s="94"/>
+      <c r="U40" s="94"/>
+      <c r="V40" s="94"/>
+      <c r="W40" s="94"/>
+      <c r="X40" s="94"/>
+      <c r="Y40" s="94"/>
+      <c r="Z40" s="94"/>
+      <c r="AA40" s="94"/>
       <c r="AB40" s="16"/>
       <c r="AC40" s="16"/>
       <c r="AD40" s="16"/>
@@ -3703,23 +3728,23 @@
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="69"/>
-      <c r="P41" s="69"/>
-      <c r="Q41" s="69"/>
-      <c r="R41" s="69"/>
-      <c r="S41" s="69"/>
-      <c r="T41" s="69"/>
-      <c r="U41" s="69"/>
-      <c r="V41" s="69"/>
-      <c r="W41" s="69"/>
-      <c r="X41" s="69"/>
-      <c r="Y41" s="69"/>
-      <c r="Z41" s="69"/>
-      <c r="AA41" s="69"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="93"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="93"/>
+      <c r="P41" s="93"/>
+      <c r="Q41" s="93"/>
+      <c r="R41" s="93"/>
+      <c r="S41" s="93"/>
+      <c r="T41" s="93"/>
+      <c r="U41" s="93"/>
+      <c r="V41" s="93"/>
+      <c r="W41" s="93"/>
+      <c r="X41" s="93"/>
+      <c r="Y41" s="93"/>
+      <c r="Z41" s="93"/>
+      <c r="AA41" s="93"/>
       <c r="AB41" s="21" t="s">
         <v>61</v>
       </c>
@@ -3776,36 +3801,36 @@
       <c r="A43" s="19"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="62" t="s">
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="65" t="s">
+      <c r="H43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="65"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="65"/>
-      <c r="O43" s="65"/>
-      <c r="P43" s="65"/>
-      <c r="Q43" s="65"/>
-      <c r="R43" s="65"/>
-      <c r="S43" s="65"/>
-      <c r="T43" s="65"/>
-      <c r="U43" s="65"/>
-      <c r="V43" s="65"/>
-      <c r="W43" s="65"/>
-      <c r="X43" s="65"/>
-      <c r="Y43" s="65"/>
-      <c r="Z43" s="65"/>
-      <c r="AA43" s="65"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="87"/>
+      <c r="P43" s="87"/>
+      <c r="Q43" s="87"/>
+      <c r="R43" s="87"/>
+      <c r="S43" s="87"/>
+      <c r="T43" s="87"/>
+      <c r="U43" s="87"/>
+      <c r="V43" s="87"/>
+      <c r="W43" s="87"/>
+      <c r="X43" s="87"/>
+      <c r="Y43" s="87"/>
+      <c r="Z43" s="87"/>
+      <c r="AA43" s="87"/>
       <c r="AB43" s="16"/>
       <c r="AC43" s="16"/>
       <c r="AD43" s="16"/>
@@ -3823,31 +3848,31 @@
       <c r="D44" s="23"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="62" t="s">
+      <c r="G44" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="65" t="s">
+      <c r="H44" s="92"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="L44" s="65"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="65"/>
-      <c r="O44" s="65"/>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="65"/>
-      <c r="R44" s="65"/>
-      <c r="S44" s="65"/>
-      <c r="T44" s="65"/>
-      <c r="U44" s="65"/>
-      <c r="V44" s="65"/>
-      <c r="W44" s="65"/>
-      <c r="X44" s="65"/>
-      <c r="Y44" s="65"/>
-      <c r="Z44" s="65"/>
-      <c r="AA44" s="65"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="87"/>
+      <c r="R44" s="87"/>
+      <c r="S44" s="87"/>
+      <c r="T44" s="87"/>
+      <c r="U44" s="87"/>
+      <c r="V44" s="87"/>
+      <c r="W44" s="87"/>
+      <c r="X44" s="87"/>
+      <c r="Y44" s="87"/>
+      <c r="Z44" s="87"/>
+      <c r="AA44" s="87"/>
       <c r="AB44" s="16"/>
       <c r="AC44" s="16"/>
       <c r="AD44" s="16"/>
@@ -3865,31 +3890,31 @@
       <c r="D45" s="23"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="62" t="s">
+      <c r="G45" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="66" t="s">
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="L45" s="66"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
-      <c r="P45" s="66"/>
-      <c r="Q45" s="66"/>
-      <c r="R45" s="66"/>
-      <c r="S45" s="66"/>
-      <c r="T45" s="66"/>
-      <c r="U45" s="66"/>
-      <c r="V45" s="66"/>
-      <c r="W45" s="66"/>
-      <c r="X45" s="66"/>
-      <c r="Y45" s="66"/>
-      <c r="Z45" s="66"/>
-      <c r="AA45" s="66"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="67"/>
+      <c r="O45" s="67"/>
+      <c r="P45" s="67"/>
+      <c r="Q45" s="67"/>
+      <c r="R45" s="67"/>
+      <c r="S45" s="67"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="67"/>
+      <c r="V45" s="67"/>
+      <c r="W45" s="67"/>
+      <c r="X45" s="67"/>
+      <c r="Y45" s="67"/>
+      <c r="Z45" s="67"/>
+      <c r="AA45" s="67"/>
       <c r="AB45" s="21" t="s">
         <v>61</v>
       </c>
@@ -3911,29 +3936,29 @@
       <c r="D46" s="23"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="62" t="s">
+      <c r="G46" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="67"/>
-      <c r="M46" s="67"/>
-      <c r="N46" s="67"/>
-      <c r="O46" s="67"/>
-      <c r="P46" s="67"/>
-      <c r="Q46" s="67"/>
-      <c r="R46" s="67"/>
-      <c r="S46" s="67"/>
-      <c r="T46" s="67"/>
-      <c r="U46" s="67"/>
-      <c r="V46" s="67"/>
-      <c r="W46" s="67"/>
-      <c r="X46" s="67"/>
-      <c r="Y46" s="67"/>
-      <c r="Z46" s="67"/>
-      <c r="AA46" s="67"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="97"/>
+      <c r="L46" s="97"/>
+      <c r="M46" s="97"/>
+      <c r="N46" s="97"/>
+      <c r="O46" s="97"/>
+      <c r="P46" s="97"/>
+      <c r="Q46" s="97"/>
+      <c r="R46" s="97"/>
+      <c r="S46" s="97"/>
+      <c r="T46" s="97"/>
+      <c r="U46" s="97"/>
+      <c r="V46" s="97"/>
+      <c r="W46" s="97"/>
+      <c r="X46" s="97"/>
+      <c r="Y46" s="97"/>
+      <c r="Z46" s="97"/>
+      <c r="AA46" s="97"/>
       <c r="AB46" s="16"/>
       <c r="AC46" s="16"/>
       <c r="AD46" s="16"/>
@@ -3948,6 +3973,8 @@
       <c r="A47" s="19"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
+      <c r="K47" s="103"/>
+      <c r="S47" s="103"/>
       <c r="AI47" s="16"/>
       <c r="AJ47" s="18"/>
     </row>
@@ -3999,38 +4026,38 @@
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
       <c r="E49" s="40"/>
-      <c r="F49" s="57" t="s">
+      <c r="F49" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="57"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="57"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="57"/>
-      <c r="S49" s="57"/>
-      <c r="T49" s="57"/>
-      <c r="U49" s="57"/>
-      <c r="V49" s="57"/>
-      <c r="W49" s="57"/>
-      <c r="X49" s="57"/>
-      <c r="Y49" s="57"/>
-      <c r="Z49" s="57"/>
-      <c r="AA49" s="57"/>
-      <c r="AB49" s="57"/>
-      <c r="AC49" s="57"/>
-      <c r="AD49" s="57"/>
-      <c r="AE49" s="57"/>
-      <c r="AF49" s="57"/>
-      <c r="AG49" s="57"/>
-      <c r="AH49" s="57"/>
-      <c r="AI49" s="58"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="95"/>
+      <c r="L49" s="95"/>
+      <c r="M49" s="95"/>
+      <c r="N49" s="95"/>
+      <c r="O49" s="95"/>
+      <c r="P49" s="95"/>
+      <c r="Q49" s="95"/>
+      <c r="R49" s="95"/>
+      <c r="S49" s="95"/>
+      <c r="T49" s="95"/>
+      <c r="U49" s="95"/>
+      <c r="V49" s="95"/>
+      <c r="W49" s="95"/>
+      <c r="X49" s="95"/>
+      <c r="Y49" s="95"/>
+      <c r="Z49" s="95"/>
+      <c r="AA49" s="95"/>
+      <c r="AB49" s="95"/>
+      <c r="AC49" s="95"/>
+      <c r="AD49" s="95"/>
+      <c r="AE49" s="95"/>
+      <c r="AF49" s="95"/>
+      <c r="AG49" s="95"/>
+      <c r="AH49" s="95"/>
+      <c r="AI49" s="96"/>
       <c r="AJ49" s="18"/>
     </row>
     <row r="50" spans="1:36" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4041,80 +4068,80 @@
       <c r="E50" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="F50" s="57" t="s">
+      <c r="F50" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="57"/>
-      <c r="S50" s="57"/>
-      <c r="T50" s="57"/>
-      <c r="U50" s="57"/>
-      <c r="V50" s="57"/>
-      <c r="W50" s="57"/>
-      <c r="X50" s="57"/>
-      <c r="Y50" s="57"/>
-      <c r="Z50" s="57"/>
-      <c r="AA50" s="57"/>
-      <c r="AB50" s="57"/>
-      <c r="AC50" s="57"/>
-      <c r="AD50" s="57"/>
-      <c r="AE50" s="57"/>
-      <c r="AF50" s="57"/>
-      <c r="AG50" s="57"/>
-      <c r="AH50" s="57"/>
-      <c r="AI50" s="58"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="95"/>
+      <c r="L50" s="95"/>
+      <c r="M50" s="95"/>
+      <c r="N50" s="95"/>
+      <c r="O50" s="95"/>
+      <c r="P50" s="95"/>
+      <c r="Q50" s="95"/>
+      <c r="R50" s="95"/>
+      <c r="S50" s="95"/>
+      <c r="T50" s="95"/>
+      <c r="U50" s="95"/>
+      <c r="V50" s="95"/>
+      <c r="W50" s="95"/>
+      <c r="X50" s="95"/>
+      <c r="Y50" s="95"/>
+      <c r="Z50" s="95"/>
+      <c r="AA50" s="95"/>
+      <c r="AB50" s="95"/>
+      <c r="AC50" s="95"/>
+      <c r="AD50" s="95"/>
+      <c r="AE50" s="95"/>
+      <c r="AF50" s="95"/>
+      <c r="AG50" s="95"/>
+      <c r="AH50" s="95"/>
+      <c r="AI50" s="96"/>
       <c r="AJ50" s="18"/>
     </row>
     <row r="51" spans="1:36" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
       <c r="E51" s="40"/>
-      <c r="F51" s="57" t="s">
+      <c r="F51" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="57"/>
-      <c r="R51" s="57"/>
-      <c r="S51" s="57"/>
-      <c r="T51" s="57"/>
-      <c r="U51" s="57"/>
-      <c r="V51" s="57"/>
-      <c r="W51" s="57"/>
-      <c r="X51" s="57"/>
-      <c r="Y51" s="57"/>
-      <c r="Z51" s="57"/>
-      <c r="AA51" s="57"/>
-      <c r="AB51" s="57"/>
-      <c r="AC51" s="57"/>
-      <c r="AD51" s="57"/>
-      <c r="AE51" s="57"/>
-      <c r="AF51" s="57"/>
-      <c r="AG51" s="57"/>
-      <c r="AH51" s="57"/>
-      <c r="AI51" s="58"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="95"/>
+      <c r="L51" s="95"/>
+      <c r="M51" s="95"/>
+      <c r="N51" s="95"/>
+      <c r="O51" s="95"/>
+      <c r="P51" s="95"/>
+      <c r="Q51" s="95"/>
+      <c r="R51" s="95"/>
+      <c r="S51" s="95"/>
+      <c r="T51" s="95"/>
+      <c r="U51" s="95"/>
+      <c r="V51" s="95"/>
+      <c r="W51" s="95"/>
+      <c r="X51" s="95"/>
+      <c r="Y51" s="95"/>
+      <c r="Z51" s="95"/>
+      <c r="AA51" s="95"/>
+      <c r="AB51" s="95"/>
+      <c r="AC51" s="95"/>
+      <c r="AD51" s="95"/>
+      <c r="AE51" s="95"/>
+      <c r="AF51" s="95"/>
+      <c r="AG51" s="95"/>
+      <c r="AH51" s="95"/>
+      <c r="AI51" s="96"/>
       <c r="AJ51" s="18"/>
     </row>
     <row r="52" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4125,38 +4152,38 @@
       <c r="E52" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="F52" s="57" t="s">
+      <c r="F52" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="57"/>
-      <c r="S52" s="57"/>
-      <c r="T52" s="57"/>
-      <c r="U52" s="57"/>
-      <c r="V52" s="57"/>
-      <c r="W52" s="57"/>
-      <c r="X52" s="57"/>
-      <c r="Y52" s="57"/>
-      <c r="Z52" s="57"/>
-      <c r="AA52" s="57"/>
-      <c r="AB52" s="57"/>
-      <c r="AC52" s="57"/>
-      <c r="AD52" s="57"/>
-      <c r="AE52" s="57"/>
-      <c r="AF52" s="57"/>
-      <c r="AG52" s="57"/>
-      <c r="AH52" s="57"/>
-      <c r="AI52" s="58"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="95"/>
+      <c r="I52" s="95"/>
+      <c r="J52" s="95"/>
+      <c r="K52" s="95"/>
+      <c r="L52" s="95"/>
+      <c r="M52" s="95"/>
+      <c r="N52" s="95"/>
+      <c r="O52" s="95"/>
+      <c r="P52" s="95"/>
+      <c r="Q52" s="95"/>
+      <c r="R52" s="95"/>
+      <c r="S52" s="95"/>
+      <c r="T52" s="95"/>
+      <c r="U52" s="95"/>
+      <c r="V52" s="95"/>
+      <c r="W52" s="95"/>
+      <c r="X52" s="95"/>
+      <c r="Y52" s="95"/>
+      <c r="Z52" s="95"/>
+      <c r="AA52" s="95"/>
+      <c r="AB52" s="95"/>
+      <c r="AC52" s="95"/>
+      <c r="AD52" s="95"/>
+      <c r="AE52" s="95"/>
+      <c r="AF52" s="95"/>
+      <c r="AG52" s="95"/>
+      <c r="AH52" s="95"/>
+      <c r="AI52" s="96"/>
       <c r="AJ52" s="45"/>
     </row>
     <row r="53" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4165,38 +4192,38 @@
       <c r="C53" s="43"/>
       <c r="D53" s="44"/>
       <c r="E53" s="40"/>
-      <c r="F53" s="57" t="s">
+      <c r="F53" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="57"/>
-      <c r="R53" s="57"/>
-      <c r="S53" s="57"/>
-      <c r="T53" s="57"/>
-      <c r="U53" s="57"/>
-      <c r="V53" s="57"/>
-      <c r="W53" s="57"/>
-      <c r="X53" s="57"/>
-      <c r="Y53" s="57"/>
-      <c r="Z53" s="57"/>
-      <c r="AA53" s="57"/>
-      <c r="AB53" s="57"/>
-      <c r="AC53" s="57"/>
-      <c r="AD53" s="57"/>
-      <c r="AE53" s="57"/>
-      <c r="AF53" s="57"/>
-      <c r="AG53" s="57"/>
-      <c r="AH53" s="57"/>
-      <c r="AI53" s="58"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="95"/>
+      <c r="I53" s="95"/>
+      <c r="J53" s="95"/>
+      <c r="K53" s="95"/>
+      <c r="L53" s="95"/>
+      <c r="M53" s="95"/>
+      <c r="N53" s="95"/>
+      <c r="O53" s="95"/>
+      <c r="P53" s="95"/>
+      <c r="Q53" s="95"/>
+      <c r="R53" s="95"/>
+      <c r="S53" s="95"/>
+      <c r="T53" s="95"/>
+      <c r="U53" s="95"/>
+      <c r="V53" s="95"/>
+      <c r="W53" s="95"/>
+      <c r="X53" s="95"/>
+      <c r="Y53" s="95"/>
+      <c r="Z53" s="95"/>
+      <c r="AA53" s="95"/>
+      <c r="AB53" s="95"/>
+      <c r="AC53" s="95"/>
+      <c r="AD53" s="95"/>
+      <c r="AE53" s="95"/>
+      <c r="AF53" s="95"/>
+      <c r="AG53" s="95"/>
+      <c r="AH53" s="95"/>
+      <c r="AI53" s="96"/>
       <c r="AJ53" s="45"/>
     </row>
     <row r="54" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4205,47 +4232,51 @@
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
       <c r="E54" s="48"/>
-      <c r="F54" s="59" t="s">
+      <c r="F54" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="59"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="59"/>
-      <c r="S54" s="59"/>
-      <c r="T54" s="59"/>
-      <c r="U54" s="59"/>
-      <c r="V54" s="59"/>
-      <c r="W54" s="59"/>
-      <c r="X54" s="59"/>
-      <c r="Y54" s="59"/>
-      <c r="Z54" s="59"/>
-      <c r="AA54" s="59"/>
-      <c r="AB54" s="59"/>
-      <c r="AC54" s="59"/>
-      <c r="AD54" s="59"/>
-      <c r="AE54" s="59"/>
-      <c r="AF54" s="59"/>
-      <c r="AG54" s="59"/>
-      <c r="AH54" s="59"/>
-      <c r="AI54" s="60"/>
+      <c r="G54" s="98"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="98"/>
+      <c r="L54" s="98"/>
+      <c r="M54" s="98"/>
+      <c r="N54" s="98"/>
+      <c r="O54" s="98"/>
+      <c r="P54" s="98"/>
+      <c r="Q54" s="98"/>
+      <c r="R54" s="98"/>
+      <c r="S54" s="98"/>
+      <c r="T54" s="98"/>
+      <c r="U54" s="98"/>
+      <c r="V54" s="98"/>
+      <c r="W54" s="98"/>
+      <c r="X54" s="98"/>
+      <c r="Y54" s="98"/>
+      <c r="Z54" s="98"/>
+      <c r="AA54" s="98"/>
+      <c r="AB54" s="98"/>
+      <c r="AC54" s="98"/>
+      <c r="AD54" s="98"/>
+      <c r="AE54" s="98"/>
+      <c r="AF54" s="98"/>
+      <c r="AG54" s="98"/>
+      <c r="AH54" s="98"/>
+      <c r="AI54" s="99"/>
       <c r="AJ54" s="45"/>
     </row>
     <row r="55" spans="1:36" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="49"/>
       <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
+      <c r="C55" s="57" t="s">
+        <v>80</v>
+      </c>
       <c r="D55" s="50"/>
       <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
+      <c r="F55" s="58" t="s">
+        <v>81</v>
+      </c>
       <c r="G55" s="51"/>
       <c r="H55" s="51"/>
       <c r="I55" s="51"/>
@@ -4258,10 +4289,14 @@
       <c r="P55" s="51"/>
       <c r="Q55" s="51"/>
       <c r="R55" s="51"/>
-      <c r="S55" s="51"/>
-      <c r="T55" s="51"/>
+      <c r="S55" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="T55" s="50"/>
       <c r="U55" s="51"/>
-      <c r="V55" s="51"/>
+      <c r="V55" s="58" t="s">
+        <v>83</v>
+      </c>
       <c r="W55" s="51"/>
       <c r="X55" s="51"/>
       <c r="Y55" s="5"/>
@@ -4278,40 +4313,40 @@
       <c r="AJ55" s="52"/>
     </row>
     <row r="56" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="61"/>
-      <c r="M56" s="61"/>
-      <c r="N56" s="61"/>
-      <c r="O56" s="61"/>
-      <c r="P56" s="61"/>
-      <c r="Q56" s="61"/>
-      <c r="R56" s="61"/>
-      <c r="S56" s="61"/>
-      <c r="T56" s="61"/>
-      <c r="U56" s="61"/>
-      <c r="V56" s="61"/>
-      <c r="W56" s="61"/>
-      <c r="X56" s="61"/>
-      <c r="Y56" s="61"/>
-      <c r="Z56" s="61"/>
-      <c r="AA56" s="61"/>
-      <c r="AB56" s="61"/>
-      <c r="AC56" s="61"/>
-      <c r="AD56" s="61"/>
-      <c r="AE56" s="61"/>
-      <c r="AF56" s="61"/>
-      <c r="AG56" s="61"/>
-      <c r="AH56" s="61"/>
-      <c r="AI56" s="61"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="100"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="100"/>
+      <c r="K56" s="100"/>
+      <c r="L56" s="100"/>
+      <c r="M56" s="100"/>
+      <c r="N56" s="100"/>
+      <c r="O56" s="100"/>
+      <c r="P56" s="100"/>
+      <c r="Q56" s="100"/>
+      <c r="R56" s="100"/>
+      <c r="S56" s="100"/>
+      <c r="T56" s="100"/>
+      <c r="U56" s="100"/>
+      <c r="V56" s="100"/>
+      <c r="W56" s="100"/>
+      <c r="X56" s="100"/>
+      <c r="Y56" s="100"/>
+      <c r="Z56" s="100"/>
+      <c r="AA56" s="100"/>
+      <c r="AB56" s="100"/>
+      <c r="AC56" s="100"/>
+      <c r="AD56" s="100"/>
+      <c r="AE56" s="100"/>
+      <c r="AF56" s="100"/>
+      <c r="AG56" s="100"/>
+      <c r="AH56" s="100"/>
+      <c r="AI56" s="100"/>
       <c r="AJ56" s="53"/>
     </row>
     <row r="57" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4322,57 +4357,37 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="AF1:AJ5"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:AE4"/>
-    <mergeCell ref="B7:AI7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:AA9"/>
-    <mergeCell ref="AB9:AI9"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="M2:AE2"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="K10:AA10"/>
-    <mergeCell ref="AB10:AI10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="K11:AA11"/>
-    <mergeCell ref="AB11:AI11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="K12:AA12"/>
-    <mergeCell ref="AB12:AI12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="K13:AA13"/>
-    <mergeCell ref="AB13:AI13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:AA14"/>
-    <mergeCell ref="AB14:AI14"/>
-    <mergeCell ref="B15:AI15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="K16:AA16"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="O17:U17"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="O19:U19"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="M22:AA22"/>
-    <mergeCell ref="D23:R23"/>
-    <mergeCell ref="S23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="S24:Y24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="Z27:AH27"/>
-    <mergeCell ref="O27:U27"/>
+    <mergeCell ref="F53:AI53"/>
+    <mergeCell ref="F54:AI54"/>
+    <mergeCell ref="B56:AI56"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="F49:AI49"/>
+    <mergeCell ref="F50:AI50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="F51:AI51"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:AA44"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:AA45"/>
+    <mergeCell ref="F52:AI52"/>
+    <mergeCell ref="K46:AA46"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="K43:AA43"/>
+    <mergeCell ref="K41:AA41"/>
+    <mergeCell ref="K40:AA40"/>
+    <mergeCell ref="K35:AI35"/>
+    <mergeCell ref="C37:AI37"/>
+    <mergeCell ref="C38:AI38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="K32:AI32"/>
+    <mergeCell ref="K33:AI33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="K34:AI34"/>
     <mergeCell ref="K30:M30"/>
     <mergeCell ref="Z30:AH30"/>
     <mergeCell ref="E31:H31"/>
@@ -4384,37 +4399,57 @@
     <mergeCell ref="O29:U29"/>
     <mergeCell ref="O28:U28"/>
     <mergeCell ref="O30:U30"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="K32:AI32"/>
-    <mergeCell ref="K33:AI33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="K34:AI34"/>
-    <mergeCell ref="K35:AI35"/>
-    <mergeCell ref="C37:AI37"/>
-    <mergeCell ref="C38:AI38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:AA43"/>
-    <mergeCell ref="K41:AA41"/>
-    <mergeCell ref="K40:AA40"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:AA44"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:AA45"/>
-    <mergeCell ref="F52:AI52"/>
-    <mergeCell ref="K46:AA46"/>
-    <mergeCell ref="F53:AI53"/>
-    <mergeCell ref="F54:AI54"/>
-    <mergeCell ref="B56:AI56"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="F49:AI49"/>
-    <mergeCell ref="F50:AI50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="F51:AI51"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="S24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="Z27:AH27"/>
+    <mergeCell ref="O27:U27"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="M22:AA22"/>
+    <mergeCell ref="D23:R23"/>
+    <mergeCell ref="S23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="O19:U19"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="O17:U17"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:AA14"/>
+    <mergeCell ref="AB14:AI14"/>
+    <mergeCell ref="B15:AI15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="K16:AA16"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="K12:AA12"/>
+    <mergeCell ref="AB12:AI12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="K13:AA13"/>
+    <mergeCell ref="AB13:AI13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="K10:AA10"/>
+    <mergeCell ref="AB10:AI10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="K11:AA11"/>
+    <mergeCell ref="AB11:AI11"/>
+    <mergeCell ref="AF1:AJ5"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:AE4"/>
+    <mergeCell ref="B7:AI7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:AA9"/>
+    <mergeCell ref="AB9:AI9"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="M2:AE2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
